--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
     <t>dog/dog008.png</t>
   </si>
   <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
+    <t>car/car012.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
   </si>
   <si>
     <t>car/car013.png</t>
   </si>
   <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
   </si>
   <si>
     <t>dog/dog003.png</t>
   </si>
   <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>dog/dog011.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
   </si>
   <si>
     <t>flower/flower005.png</t>
   </si>
   <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
     <t>car/car004.png</t>
   </si>
   <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>dog/dog028.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>flower/flower017.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>car/car019.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
   </si>
   <si>
     <t>flower/flower023.png</t>
   </si>
   <si>
-    <t>flower/flower016.png</t>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
   </si>
   <si>
     <t>face/face019.png</t>
   </si>
   <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
   </si>
   <si>
     <t>dog/dog030.png</t>
   </si>
   <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
   </si>
   <si>
     <t>face/face028.png</t>
   </si>
   <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
     <t>dog/dog017.png</t>
   </si>
   <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog047.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
   </si>
   <si>
     <t>face/face043.png</t>
   </si>
   <si>
-    <t>face/face036.png</t>
+    <t>flower/flower046.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>car/car043.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>dog/dog044.png</t>
   </si>
   <si>
     <t>dog/dog039.png</t>
   </si>
   <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
     <t>face/face038.png</t>
   </si>
   <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
     <t>dog/dog036.png</t>
   </si>
   <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
+    <t>car/car061.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>flower/flower049.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>flower/flower054.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>face/face051.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>flower/flower050.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>car/car054.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>face/face060.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
   </si>
   <si>
     <t>car/car051.png</t>
   </si>
   <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
   </si>
   <si>
     <t>face/face054.png</t>
   </si>
   <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>flower/flower058.png</t>
   </si>
   <si>
     <t>flower/flower052.png</t>
   </si>
   <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
+    <t>dog/dog050.png</t>
   </si>
   <si>
     <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.539406546395932</v>
+        <v>1.615563249325818</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.589910310780025</v>
+        <v>1.254463140367589</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.519035065752674</v>
+        <v>1.49991424827022</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.347615552197925</v>
+        <v>1.530468512555609</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.485057081884816</v>
+        <v>1.300249537939793</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.001943377628478</v>
+        <v>1.641733982806964</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.315271647552608</v>
+        <v>1.57887843933831</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.56933955002429</v>
+        <v>1.435061544231699</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.651983882007511</v>
+        <v>1.488478268765223</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.741579328966344</v>
+        <v>1.555771467821323</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1.596820543608154</v>
+        <v>1.276553276570257</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.505410426905485</v>
+        <v>1.548479124141508</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.552399462849597</v>
+        <v>1.611576149157272</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.47309844832225</v>
+        <v>1.78926597129864</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.46205544058925</v>
+        <v>1.325336966765651</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.355975767673063</v>
+        <v>1.517960980735041</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.430678012721824</v>
+        <v>1.728176724074535</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.517623414625497</v>
+        <v>1.729050799007498</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.441386243567992</v>
+        <v>1.323236228373607</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.511064298237434</v>
+        <v>1.651881243955057</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.492167711146379</v>
+        <v>1.545289619244708</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.371456747044615</v>
+        <v>1.980700353545847</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.749477815534223</v>
+        <v>1.303403173905223</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.402742989058389</v>
+        <v>1.577759300212701</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.370664502590621</v>
+        <v>1.504327197072717</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.511297159310194</v>
+        <v>1.61440796473651</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.305910187755446</v>
+        <v>1.855630237490979</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.582716755545529</v>
+        <v>1.537917818208765</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.896377039851826</v>
+        <v>1.536243910252858</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.376724494544043</v>
+        <v>1.386566743048072</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.393658847013305</v>
+        <v>1.501515144483495</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.563869707814247</v>
+        <v>1.372861800568454</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.516057900891835</v>
+        <v>1.68930132868739</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.31839151548219</v>
+        <v>1.482501645868004</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.675527385907231</v>
+        <v>1.49229272410952</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.871481373368339</v>
+        <v>1.659517152794769</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.404473171242953</v>
+        <v>1.776314465788978</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.396373325418967</v>
+        <v>1.817517568669289</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.592898032656925</v>
+        <v>1.659956073544201</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.635908787380854</v>
+        <v>1.446344589510435</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.570451514433525</v>
+        <v>1.429957502403455</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.420659012550929</v>
+        <v>1.423578846861226</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.77966234383061</v>
+        <v>1.563801373105229</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.499708781170286</v>
+        <v>1.419052375416306</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.648433978196598</v>
+        <v>1.601546124523362</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.428793081184714</v>
+        <v>1.376817059109867</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.410116609018039</v>
+        <v>1.508184597279773</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.4197397792351</v>
+        <v>1.463698335631666</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.608721178989908</v>
+        <v>1.439047809753432</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.554711033022251</v>
+        <v>1.716210203456878</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.422820589536674</v>
+        <v>1.379528510746836</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.584610081610816</v>
+        <v>1.748700150477461</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.364809677641897</v>
+        <v>1.660437472835088</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.549315597959351</v>
+        <v>1.613719503160317</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.471290118430273</v>
+        <v>1.710478602097306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.687431953823306</v>
+        <v>1.445992814649199</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.597749200500121</v>
+        <v>1.832293923365451</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.332597023671701</v>
+        <v>1.471252921122918</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.518007861141106</v>
+        <v>1.518452333946959</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.39111169053037</v>
+        <v>1.65754451632282</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>1.485444791967776</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.425371111899295</v>
+        <v>1.410584036782429</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.541593420452094</v>
+        <v>1.346788446641741</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.581481225789556</v>
+        <v>1.469530844431486</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2483,10 +2483,10 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1.406017033925057</v>
+        <v>1.524931508091825</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.499699293648596</v>
+        <v>1.623398699331944</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.027351168467272</v>
+        <v>1.407104949956474</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.344367559516968</v>
+        <v>1.437222932167604</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.252259217842942</v>
+        <v>1.601706043060162</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.474303236622753</v>
+        <v>1.397741301115303</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.493822139972279</v>
+        <v>1.429918674596489</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.317213547525632</v>
+        <v>1.720754362576301</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.563263681791029</v>
+        <v>1.323536863074786</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.551441304348979</v>
+        <v>1.55216666512327</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.398310772646413</v>
+        <v>1.559272156501998</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.546113275589611</v>
+        <v>1.556889174253885</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.416126734129944</v>
+        <v>1.551813945338968</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.684172731913909</v>
+        <v>1.75813195876902</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.510699164927348</v>
+        <v>1.577912131246141</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.701768797375148</v>
+        <v>1.444082806454974</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.690099341904795</v>
+        <v>1.484039404025226</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.491411985408706</v>
+        <v>1.599679643645727</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.669012916585802</v>
+        <v>1.249652278145011</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.688127659008359</v>
+        <v>1.325524351451239</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.407687145006745</v>
+        <v>1.410836148179544</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.702774416311408</v>
+        <v>1.589622412094913</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.577747888150469</v>
+        <v>1.305626997964275</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.588104451908766</v>
+        <v>1.604390371615545</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.166520892442831</v>
+        <v>1.408072309860199</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.530133113916105</v>
+        <v>1.059206317948987</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.532563020299258</v>
+        <v>1.680370209980056</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.565669936453858</v>
+        <v>1.730875180546674</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.624936544085054</v>
+        <v>1.406720787510925</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.428792211040228</v>
+        <v>1.321500268994246</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.148704208500597</v>
+        <v>1.500176330324141</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.317628715642499</v>
+        <v>1.415844139050484</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.575832324790785</v>
+        <v>1.615493948921772</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.527939292861187</v>
+        <v>1.624403731693577</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.661751092848412</v>
+        <v>1.539787448938768</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.544798415363588</v>
+        <v>1.619630317146657</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.566006635442375</v>
+        <v>1.493556728696355</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.700766313219782</v>
+        <v>1.479811880417491</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.623214807292841</v>
+        <v>1.522968387106444</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.52027210215461</v>
+        <v>1.527421554867466</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1.446885131411471</v>
+        <v>1.441149609514106</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.147511673293964</v>
+        <v>1.221024483485217</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.441648694461932</v>
+        <v>1.684786633550943</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.356420537762172</v>
+        <v>1.697191101424504</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.453698313671462</v>
+        <v>1.412261036654486</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.851985855796558</v>
+        <v>1.562794941306662</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.499139406510575</v>
+        <v>1.203848091852888</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.597819898807335</v>
+        <v>1.420066828022029</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.511578710149545</v>
+        <v>1.357446606966021</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.341064575852068</v>
+        <v>1.485525439848671</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.54042718971806</v>
+        <v>1.420517976455301</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.529755319359503</v>
+        <v>1.552986042195141</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.833114460778236</v>
+        <v>1.874296133056633</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.398304852607919</v>
+        <v>1.342026630068369</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="F120">
-        <v>1.534349763948251</v>
+        <v>1.629602752026671</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.554815780241622</v>
+        <v>1.671518903834401</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.385609332730767</v>
+        <v>1.310142194516218</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.675089037224361</v>
+        <v>1.8407349640297</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.272344435002387</v>
+        <v>1.282402269858397</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.062246471302927</v>
+        <v>1.535626856943776</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.574846026613757</v>
+        <v>1.685846887304544</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.520754642320636</v>
+        <v>1.365572125987353</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.790715435447253</v>
+        <v>1.309846807834465</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.620775928774961</v>
+        <v>1.853366321967368</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.588273423968759</v>
+        <v>1.369393623375029</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.502843051397213</v>
+        <v>1.334825654845903</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.690159101249479</v>
+        <v>1.187739802703506</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.596519928007679</v>
+        <v>1.207882154735273</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.436275891177541</v>
+        <v>1.285485921581645</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.333593366568087</v>
+        <v>1.630699692563232</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.659178485870969</v>
+        <v>1.772150773651276</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.533205419101162</v>
+        <v>1.349915832553571</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.344223428301411</v>
+        <v>1.319184724401287</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.37830971041732</v>
+        <v>1.506478515901214</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.493012854239958</v>
+        <v>1.524797784920118</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.370255942948326</v>
+        <v>1.691209450068559</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.540557868748381</v>
+        <v>1.727467225448837</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.531562096978332</v>
+        <v>1.485561610225119</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.523105810056082</v>
+        <v>1.493423005966702</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.359513703322427</v>
+        <v>1.269750684806497</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4083,10 +4083,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>1.286713517728223</v>
+        <v>1.180854692218362</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.354018950937409</v>
+        <v>1.523248349288758</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.672456226003213</v>
+        <v>1.35413069468307</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.361536250784652</v>
+        <v>1.46156350712993</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.211165325565007</v>
+        <v>1.544182513718269</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.45254852121823</v>
+        <v>1.424176760433578</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.353111661703515</v>
+        <v>1.579148750540037</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.442280988795721</v>
+        <v>1.698580709703348</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1.69445427796224</v>
+        <v>1.475835534917401</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155">
-        <v>1.442533238236444</v>
+        <v>1.398930928307818</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.548792241416322</v>
+        <v>1.294909224134237</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.823953281205758</v>
+        <v>1.411204964418253</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.735662896976677</v>
+        <v>1.564303158825572</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.584625513445666</v>
+        <v>1.471106940516879</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.477286648245416</v>
+        <v>1.548932871537665</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>1</v>
       </c>
       <c r="F161">
-        <v>1.710323014483042</v>
+        <v>1.441845621104371</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.859635100912042</v>
+        <v>1.414557352742812</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.424003733378036</v>
+        <v>1.340548473139143</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.573876458659414</v>
+        <v>1.441684909457086</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.4683218487251</v>
+        <v>1.634792500593683</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.57024971580293</v>
+        <v>1.553778836318243</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.492109728697052</v>
+        <v>1.379699991428121</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.326586817852249</v>
+        <v>1.568582464935816</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.495329061742229</v>
+        <v>1.716683289677804</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.667794820565825</v>
+        <v>1.51314951735646</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.319301652432824</v>
+        <v>1.49027921180215</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.371715588406254</v>
+        <v>1.674102139483469</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.744205821429411</v>
+        <v>1.512614873980097</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.493031053941761</v>
+        <v>1.459949400529911</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.696506139639344</v>
+        <v>1.303376529892411</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.59271124657127</v>
+        <v>1.594190400160686</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.366644619262199</v>
+        <v>1.343234398298188</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.334535296364384</v>
+        <v>1.747809398454691</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.607424291329989</v>
+        <v>1.417379447250787</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.373611446602746</v>
+        <v>1.460725320224362</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.621259327982813</v>
+        <v>1.361506655881632</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.550003465625416</v>
+        <v>1.248424907509318</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.522455581806553</v>
+        <v>1.689183455964789</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.457825417075742</v>
+        <v>1.686734304053807</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.516861070166683</v>
+        <v>1.813413811838879</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.402880209614805</v>
+        <v>1.736244353848699</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.256988865363531</v>
+        <v>1.391611135481081</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.527719085899228</v>
+        <v>1.425537682364195</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.356060347600337</v>
+        <v>1.499589384341283</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.567934882618951</v>
+        <v>1.554198106625686</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.664704282831477</v>
+        <v>1.419463184513722</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.505252602285285</v>
+        <v>1.516644741041385</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.45432895819488</v>
+        <v>1.412755762639284</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.462612063614021</v>
+        <v>1.2604393756287</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.527762767941359</v>
+        <v>1.689078510398175</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.398517019217812</v>
+        <v>1.572810571361803</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.821948865635215</v>
+        <v>1.545628346345861</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.447827445211052</v>
+        <v>1.543328466471165</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.514973070686519</v>
+        <v>1.381969552009964</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.459478696949526</v>
+        <v>1.522675273739144</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.394093885820555</v>
+        <v>1.547845276284939</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.688620209275423</v>
+        <v>1.348607403378508</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.648278663987619</v>
+        <v>1.532626601061267</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.278589472679797</v>
+        <v>1.613225037098053</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.353230117281957</v>
+        <v>1.669886285760902</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.532849095868303</v>
+        <v>1.48845681848491</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.599273339427728</v>
+        <v>1.834018662837073</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>1.481536332246987</v>
+        <v>1.394050484957717</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5343,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>1.637323153352966</v>
+        <v>1.443398330264252</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.379480810063188</v>
+        <v>1.489898376645398</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.450078856067194</v>
+        <v>1.273683832409157</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.340582312129622</v>
+        <v>1.380459733974109</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.69679436484812</v>
+        <v>1.665046627311494</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.627515640256151</v>
+        <v>1.594550211446516</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.649646518081508</v>
+        <v>1.327525651900325</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.612606346432244</v>
+        <v>1.34545810608895</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.270178766611255</v>
+        <v>1.350368872582618</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.413253218557901</v>
+        <v>1.619221056067107</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.695893161258325</v>
+        <v>1.597051838163027</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.603302122830487</v>
+        <v>1.519913073657687</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.45232427556855</v>
+        <v>1.599566103844024</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.530044601920025</v>
+        <v>1.179346817609753</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.498780022326554</v>
+        <v>1.645567309609486</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.580695663170532</v>
+        <v>1.347897085711992</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.407432581993078</v>
+        <v>1.558653467710042</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.609006041768612</v>
+        <v>1.544486267005945</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.373782369891957</v>
+        <v>1.56218611335369</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.455332616968072</v>
+        <v>1.650761085416284</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>1.585434042668801</v>
+        <v>1.576250277669321</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>1</v>
       </c>
       <c r="F230">
-        <v>1.273851355150643</v>
+        <v>1.306868988183357</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.224337788348751</v>
+        <v>1.360883225949707</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F232">
-        <v>1.55906093935885</v>
+        <v>1.143293205994475</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.290063882421147</v>
+        <v>1.339342256904448</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F234">
-        <v>1.454143822342692</v>
+        <v>1.45359917975041</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.268206510996598</v>
+        <v>1.389667524167634</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.550890065148651</v>
+        <v>1.529195865393605</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.620566871328739</v>
+        <v>1.363938921134095</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.328561235386116</v>
+        <v>1.263532520388105</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.69413662055893</v>
+        <v>1.264597929949068</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.369556681695292</v>
+        <v>1.470355440078586</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.492447312774168</v>
+        <v>1.312474578470781</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.472535830888745</v>
+        <v>1.38706390609876</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.559461739542599</v>
+        <v>1.355117004373752</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.403922403896318</v>
+        <v>1.593320511965357</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.442290869054949</v>
+        <v>1.521543430925712</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.604614581903541</v>
+        <v>1.562376402440409</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.844088558903797</v>
+        <v>1.084260353545048</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.351972588465039</v>
+        <v>1.455965596450763</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.351208073095519</v>
+        <v>1.350084992676512</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.441539889572004</v>
+        <v>1.377676710861411</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.704865054825069</v>
+        <v>1.283326095711737</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.637283153661042</v>
+        <v>1.484538305368546</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.425828946418108</v>
+        <v>1.419182411690462</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.452359895066533</v>
+        <v>1.39525601071267</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.301636692096448</v>
+        <v>1.542660424788713</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.400428898337647</v>
+        <v>1.35199940404595</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.677303192704846</v>
+        <v>1.558779331979177</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>face</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>flower</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.615563249325818</v>
+        <v>1.642478577125007</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.254463140367589</v>
+        <v>1.279625144576126</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.49991424827022</v>
+        <v>1.823211813159709</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.530468512555609</v>
+        <v>1.40715795788468</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.300249537939793</v>
+        <v>1.511150108000572</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1.641733982806964</v>
+        <v>1.355441021470261</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.57887843933831</v>
+        <v>1.246845906123972</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.435061544231699</v>
+        <v>1.273130827482595</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.488478268765223</v>
+        <v>1.595900111285357</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.555771467821323</v>
+        <v>1.516819579091613</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1403,10 +1403,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1.276553276570257</v>
+        <v>1.518759474239455</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1.548479124141508</v>
+        <v>1.389111215054001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.611576149157272</v>
+        <v>1.369586685815388</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.78926597129864</v>
+        <v>1.419267370410305</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.325336966765651</v>
+        <v>1.635939627648166</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.517960980735041</v>
+        <v>1.559465399726655</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.728176724074535</v>
+        <v>1.463552417035801</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.729050799007498</v>
+        <v>1.609511762586412</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.323236228373607</v>
+        <v>1.392512100412383</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.651881243955057</v>
+        <v>1.375415394294023</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.545289619244708</v>
+        <v>1.18284537789354</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.980700353545847</v>
+        <v>1.302086378114148</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.303403173905223</v>
+        <v>1.424684334507689</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.577759300212701</v>
+        <v>1.318942628942992</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.504327197072717</v>
+        <v>1.501424646173438</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.61440796473651</v>
+        <v>1.340952597155434</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.855630237490979</v>
+        <v>1.570589704214502</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.537917818208765</v>
+        <v>1.500436625628618</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.536243910252858</v>
+        <v>1.374457278829416</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.386566743048072</v>
+        <v>1.575682686724833</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.501515144483495</v>
+        <v>1.650558672695945</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.372861800568454</v>
+        <v>1.692016057139354</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.68930132868739</v>
+        <v>1.458532579702734</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1.482501645868004</v>
+        <v>1.391359715581963</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.49229272410952</v>
+        <v>1.496210945410033</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.659517152794769</v>
+        <v>1.73617712502656</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.776314465788978</v>
+        <v>1.364260512843206</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.817517568669289</v>
+        <v>1.38292005810041</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.659956073544201</v>
+        <v>1.798010881039307</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.446344589510435</v>
+        <v>1.685826134365952</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.429957502403455</v>
+        <v>1.487408738950829</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.423578846861226</v>
+        <v>1.228877074415405</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1.563801373105229</v>
+        <v>1.065486789993538</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.419052375416306</v>
+        <v>1.504657841033277</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.601546124523362</v>
+        <v>1.357380251652499</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.376817059109867</v>
+        <v>1.552789224974564</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.508184597279773</v>
+        <v>1.81643765606203</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.463698335631666</v>
+        <v>1.402144372230026</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.439047809753432</v>
+        <v>1.645522769064906</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.716210203456878</v>
+        <v>1.73027671870558</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.379528510746836</v>
+        <v>1.565615299542721</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.748700150477461</v>
+        <v>1.5702147649097</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.660437472835088</v>
+        <v>1.466032441022404</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.613719503160317</v>
+        <v>1.551564842152891</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.710478602097306</v>
+        <v>1.59767293683837</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.445992814649199</v>
+        <v>1.416130881806467</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.832293923365451</v>
+        <v>1.644829885256632</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.471252921122918</v>
+        <v>1.385776673740255</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>1.518452333946959</v>
+        <v>1.540920683765366</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.65754451632282</v>
+        <v>1.655457660652573</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.485444791967776</v>
+        <v>1.340882910448365</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.410584036782429</v>
+        <v>1.53217775000348</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.346788446641741</v>
+        <v>1.472764596461902</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.469530844431486</v>
+        <v>1.694126770983496</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.524931508091825</v>
+        <v>1.148451922607006</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.623398699331944</v>
+        <v>1.508142797364332</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.407104949956474</v>
+        <v>1.35264530231642</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.437222932167604</v>
+        <v>1.699047235143484</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.601706043060162</v>
+        <v>1.712455290211536</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.397741301115303</v>
+        <v>1.460066173470912</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.429918674596489</v>
+        <v>1.761663515021773</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>1.720754362576301</v>
+        <v>1.641375389250216</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>1.323536863074786</v>
+        <v>1.612585141678212</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.55216666512327</v>
+        <v>1.353212682681761</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.559272156501998</v>
+        <v>1.406530912283737</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.556889174253885</v>
+        <v>1.432897755518641</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.551813945338968</v>
+        <v>1.618655119833518</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.75813195876902</v>
+        <v>1.52852565103561</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.577912131246141</v>
+        <v>1.576679035875866</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.444082806454974</v>
+        <v>1.396335522407851</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.484039404025226</v>
+        <v>1.683017887231119</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.599679643645727</v>
+        <v>1.359722954131045</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.249652278145011</v>
+        <v>1.547475212137426</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.325524351451239</v>
+        <v>1.551152415127831</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.410836148179544</v>
+        <v>1.467553476426902</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.589622412094913</v>
+        <v>1.232474830166556</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.305626997964275</v>
+        <v>1.623671314827861</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.604390371615545</v>
+        <v>1.659176632098152</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.408072309860199</v>
+        <v>1.534877932139561</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F91">
-        <v>1.059206317948987</v>
+        <v>1.747260741247414</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.680370209980056</v>
+        <v>1.533110832037073</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.730875180546674</v>
+        <v>1.553806574071836</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.406720787510925</v>
+        <v>1.530870213947792</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.321500268994246</v>
+        <v>1.414921563796439</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.500176330324141</v>
+        <v>1.606232662442472</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.415844139050484</v>
+        <v>1.092459879875257</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.615493948921772</v>
+        <v>1.441557329499643</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.624403731693577</v>
+        <v>1.370640673709661</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.539787448938768</v>
+        <v>1.701052983593209</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.619630317146657</v>
+        <v>1.290201446011794</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.493556728696355</v>
+        <v>1.706632904941509</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.479811880417491</v>
+        <v>1.701654283232427</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.522968387106444</v>
+        <v>1.64364985868831</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.527421554867466</v>
+        <v>1.132136528382632</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.441149609514106</v>
+        <v>1.465291520491816</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.221024483485217</v>
+        <v>1.396348163714584</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.684786633550943</v>
+        <v>1.375038289197341</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.697191101424504</v>
+        <v>1.527509902066331</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.412261036654486</v>
+        <v>1.691865567933197</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.562794941306662</v>
+        <v>1.54367936326469</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.203848091852888</v>
+        <v>1.433584151724674</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.420066828022029</v>
+        <v>1.245215510275663</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.357446606966021</v>
+        <v>1.430579745534637</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.485525439848671</v>
+        <v>1.363400453290818</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.420517976455301</v>
+        <v>1.431021416042464</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.552986042195141</v>
+        <v>1.52360394632787</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.874296133056633</v>
+        <v>1.492819116142825</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.342026630068369</v>
+        <v>1.641258457520022</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.629602752026671</v>
+        <v>1.486654274331706</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.671518903834401</v>
+        <v>1.649237279508831</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.310142194516218</v>
+        <v>1.383410639627869</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.8407349640297</v>
+        <v>1.304307022144815</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.282402269858397</v>
+        <v>1.394821583154015</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.535626856943776</v>
+        <v>1.529125720973328</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.685846887304544</v>
+        <v>1.447512889542688</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.365572125987353</v>
+        <v>1.747719536635305</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.309846807834465</v>
+        <v>1.512007677171375</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.853366321967368</v>
+        <v>1.459076399874028</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.369393623375029</v>
+        <v>1.619869197081396</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.334825654845903</v>
+        <v>1.368260479952563</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.187739802703506</v>
+        <v>1.478607948723276</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.207882154735273</v>
+        <v>1.453797209788917</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.285485921581645</v>
+        <v>1.390830956311809</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.630699692563232</v>
+        <v>1.308749099004793</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.772150773651276</v>
+        <v>1.588825827330491</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.349915832553571</v>
+        <v>1.169505112991868</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.319184724401287</v>
+        <v>1.393790611470749</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.506478515901214</v>
+        <v>1.350383973596293</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.524797784920118</v>
+        <v>1.40394699347214</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.691209450068559</v>
+        <v>1.438218691997648</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.727467225448837</v>
+        <v>1.329631744227428</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.485561610225119</v>
+        <v>1.320723719790029</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.493423005966702</v>
+        <v>1.380975544408318</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.269750684806497</v>
+        <v>1.450115438212439</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.180854692218362</v>
+        <v>1.539401480443018</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.523248349288758</v>
+        <v>1.517573185340141</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.35413069468307</v>
+        <v>1.436603963696213</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.46156350712993</v>
+        <v>1.182808150526882</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.544182513718269</v>
+        <v>1.472048042953591</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.424176760433578</v>
+        <v>1.457171682144189</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.579148750540037</v>
+        <v>1.324594056209194</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.698580709703348</v>
+        <v>1.61091965856353</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1.475835534917401</v>
+        <v>1.232389014645955</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.398930928307818</v>
+        <v>1.53987032987034</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.294909224134237</v>
+        <v>1.546199187997635</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.411204964418253</v>
+        <v>1.3820883086258</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.564303158825572</v>
+        <v>1.45851984855356</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.471106940516879</v>
+        <v>1.61806076853025</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.548932871537665</v>
+        <v>1.547307960271386</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.441845621104371</v>
+        <v>1.479582210888046</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.414557352742812</v>
+        <v>1.496503459571508</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.340548473139143</v>
+        <v>1.742544549207256</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.441684909457086</v>
+        <v>1.511373929721985</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.634792500593683</v>
+        <v>1.583639377311192</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.553778836318243</v>
+        <v>1.45307233609515</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.379699991428121</v>
+        <v>1.455391718256094</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.568582464935816</v>
+        <v>1.616577287617563</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.716683289677804</v>
+        <v>1.489702184894162</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.51314951735646</v>
+        <v>1.640985401694482</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.49027921180215</v>
+        <v>1.478569236016465</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.674102139483469</v>
+        <v>1.51505025585197</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.512614873980097</v>
+        <v>1.496728783760952</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.459949400529911</v>
+        <v>1.378626269981387</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F175">
-        <v>1.303376529892411</v>
+        <v>1.458419524121593</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.594190400160686</v>
+        <v>1.396209865593579</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.343234398298188</v>
+        <v>1.737074278341197</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.747809398454691</v>
+        <v>1.519844851272645</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.417379447250787</v>
+        <v>1.366420154143569</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.460725320224362</v>
+        <v>1.448315477105203</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.361506655881632</v>
+        <v>1.493437756939631</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.248424907509318</v>
+        <v>1.32866455054783</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.689183455964789</v>
+        <v>1.719872058091575</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.686734304053807</v>
+        <v>1.577775300560414</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.813413811838879</v>
+        <v>1.384122396355921</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.736244353848699</v>
+        <v>1.289866563271697</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.391611135481081</v>
+        <v>1.360540138963585</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.425537682364195</v>
+        <v>1.41445788516096</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.499589384341283</v>
+        <v>1.373961607532276</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.554198106625686</v>
+        <v>1.629091003581825</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.419463184513722</v>
+        <v>1.532368099150822</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.516644741041385</v>
+        <v>1.505382222532445</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.412755762639284</v>
+        <v>1.459261909892834</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.2604393756287</v>
+        <v>1.438076427419088</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.689078510398175</v>
+        <v>1.274185302224765</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.572810571361803</v>
+        <v>1.484741940745422</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.545628346345861</v>
+        <v>1.633165793983116</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.543328466471165</v>
+        <v>1.544940704675588</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.381969552009964</v>
+        <v>1.584398368128551</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.522675273739144</v>
+        <v>1.340817027109699</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.547845276284939</v>
+        <v>1.466947324649432</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.348607403378508</v>
+        <v>1.450618979026677</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.532626601061267</v>
+        <v>1.450889324486292</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.613225037098053</v>
+        <v>1.416786816142705</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.669886285760902</v>
+        <v>1.705305122076511</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.48845681848491</v>
+        <v>1.341897256135551</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207">
-        <v>1.834018662837073</v>
+        <v>1.132200913301275</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.394050484957717</v>
+        <v>1.3998438610317</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.443398330264252</v>
+        <v>1.591367879466101</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.489898376645398</v>
+        <v>1.753301375858957</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.273683832409157</v>
+        <v>1.569425223879144</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.380459733974109</v>
+        <v>1.451394055922961</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.665046627311494</v>
+        <v>1.492280710421177</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.594550211446516</v>
+        <v>1.275934920746401</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.327525651900325</v>
+        <v>1.404672106709281</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216">
-        <v>1.34545810608895</v>
+        <v>1.553374009779499</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.350368872582618</v>
+        <v>1.619460232177088</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.619221056067107</v>
+        <v>1.547853301582258</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.597051838163027</v>
+        <v>1.320490086114084</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.519913073657687</v>
+        <v>1.449815571660475</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.599566103844024</v>
+        <v>1.518268696857277</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.179346817609753</v>
+        <v>1.238121549670729</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.645567309609486</v>
+        <v>1.627130608941701</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.347897085711992</v>
+        <v>1.470398097284567</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>1.558653467710042</v>
+        <v>1.334893151511719</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.544486267005945</v>
+        <v>1.360775761372142</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.56218611335369</v>
+        <v>1.432726697477009</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.650761085416284</v>
+        <v>1.367450387435296</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.576250277669321</v>
+        <v>1.688992053070954</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.306868988183357</v>
+        <v>1.590722417075297</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.360883225949707</v>
+        <v>1.384333811474898</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5803,10 +5803,10 @@
         <v>3</v>
       </c>
       <c r="E232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>1.143293205994475</v>
+        <v>1.299124544502305</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.339342256904448</v>
+        <v>1.440554207096024</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="F234">
-        <v>1.45359917975041</v>
+        <v>1.510971560016817</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.389667524167634</v>
+        <v>1.422710867496896</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.529195865393605</v>
+        <v>1.111384701238533</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.363938921134095</v>
+        <v>1.485034407728983</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.263532520388105</v>
+        <v>1.494546434983671</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.264597929949068</v>
+        <v>1.46139179570625</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.470355440078586</v>
+        <v>1.315028052802722</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.312474578470781</v>
+        <v>1.454130558808848</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.38706390609876</v>
+        <v>1.494924734108526</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.355117004373752</v>
+        <v>1.514979380915087</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.593320511965357</v>
+        <v>1.569237530827461</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.521543430925712</v>
+        <v>1.407129743076152</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.562376402440409</v>
+        <v>1.612058778626834</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.084260353545048</v>
+        <v>1.853285452123144</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.455965596450763</v>
+        <v>1.460092166477081</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.350084992676512</v>
+        <v>1.516787403232166</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.377676710861411</v>
+        <v>1.329455882062239</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.283326095711737</v>
+        <v>1.673733611720335</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.484538305368546</v>
+        <v>1.409448666329734</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.419182411690462</v>
+        <v>1.577569327957764</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.39525601071267</v>
+        <v>1.673127494304915</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.542660424788713</v>
+        <v>1.330051611273805</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.35199940404595</v>
+        <v>1.592764107614819</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.558779331979177</v>
+        <v>1.455529167404606</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -31,400 +31,400 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
     <t>face/face033.jpg</t>
   </si>
   <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
   </si>
   <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
   </si>
   <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
     <t>face/face050.jpg</t>
   </si>
   <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
     <t>face/face055.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>house/house061.jpg</t>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>face/face058.jpg</t>
   </si>
   <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
   </si>
   <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
     <t>face/face063.jpg</t>
   </si>
   <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
   </si>
   <si>
     <t>face/face062.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
+    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>flower/flower050.jpg</t>
   </si>
   <si>
     <t>face/face056.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
   </si>
   <si>
     <t>house/house053.jpg</t>
   </si>
   <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
   </si>
   <si>
     <t>dog/dog070.jpg</t>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.642478577125007</v>
+        <v>1.571547486670471</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.279625144576126</v>
+        <v>1.573337559949147</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.823211813159709</v>
+        <v>1.633762758726732</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.40715795788468</v>
+        <v>1.383242084206794</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.511150108000572</v>
+        <v>1.661860774767218</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1.355441021470261</v>
+        <v>1.726673899865732</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.246845906123972</v>
+        <v>1.285940530228438</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.273130827482595</v>
+        <v>1.388119635826211</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.595900111285357</v>
+        <v>1.5576106125823</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.516819579091613</v>
+        <v>1.358293390228396</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.518759474239455</v>
+        <v>1.648290548332739</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1.389111215054001</v>
+        <v>1.491532711925997</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.369586685815388</v>
+        <v>1.451324833702817</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.419267370410305</v>
+        <v>1.464451473315381</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.635939627648166</v>
+        <v>1.452330738090021</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.559465399726655</v>
+        <v>1.367793274572082</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.463552417035801</v>
+        <v>1.597321399308381</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1.609511762586412</v>
+        <v>1.446676099341181</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.392512100412383</v>
+        <v>1.480871759282053</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.375415394294023</v>
+        <v>1.57226129502953</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.18284537789354</v>
+        <v>1.35668930912254</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.302086378114148</v>
+        <v>1.74504941455277</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.424684334507689</v>
+        <v>1.372131138875923</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.318942628942992</v>
+        <v>1.199314423338327</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.501424646173438</v>
+        <v>1.464645461102806</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.340952597155434</v>
+        <v>1.665828264301292</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.570589704214502</v>
+        <v>1.429684871292346</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.500436625628618</v>
+        <v>1.389261972039103</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>1.374457278829416</v>
+        <v>1.573473411771445</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.575682686724833</v>
+        <v>1.59083493284068</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.650558672695945</v>
+        <v>1.49801931314324</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.692016057139354</v>
+        <v>1.584097565712251</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.458532579702734</v>
+        <v>1.330409022829292</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.391359715581963</v>
+        <v>1.513922475396573</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.496210945410033</v>
+        <v>1.748705099461922</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1.73617712502656</v>
+        <v>1.603232293066592</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.364260512843206</v>
+        <v>1.623314218861629</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.38292005810041</v>
+        <v>1.482164951802097</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.798010881039307</v>
+        <v>1.471200532321247</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.685826134365952</v>
+        <v>1.535303736705164</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.487408738950829</v>
+        <v>1.594986227500024</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.228877074415405</v>
+        <v>1.499606648978805</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.065486789993538</v>
+        <v>1.455541011065123</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.504657841033277</v>
+        <v>1.550894602112178</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.357380251652499</v>
+        <v>1.246952645304559</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.552789224974564</v>
+        <v>1.578396227727154</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.81643765606203</v>
+        <v>1.440418619554497</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.402144372230026</v>
+        <v>1.222484009784599</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.645522769064906</v>
+        <v>1.686291443038904</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.73027671870558</v>
+        <v>1.310625321804023</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.565615299542721</v>
+        <v>1.413108763120865</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.5702147649097</v>
+        <v>1.386112947289216</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.466032441022404</v>
+        <v>1.325512556061426</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.551564842152891</v>
+        <v>1.570928156555921</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.59767293683837</v>
+        <v>1.283282603201498</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.416130881806467</v>
+        <v>1.470187188663672</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.644829885256632</v>
+        <v>1.282021996851351</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.385776673740255</v>
+        <v>1.652886421950449</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.540920683765366</v>
+        <v>1.733572960542553</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.655457660652573</v>
+        <v>1.444654625660218</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.340882910448365</v>
+        <v>1.588948412461298</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.53217775000348</v>
+        <v>1.49329462336465</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.472764596461902</v>
+        <v>1.600878150369464</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.694126770983496</v>
+        <v>1.642299925462874</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.148451922607006</v>
+        <v>1.710540842545222</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.508142797364332</v>
+        <v>1.49248806047092</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.35264530231642</v>
+        <v>1.158057476440164</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.699047235143484</v>
+        <v>1.443847088526738</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.712455290211536</v>
+        <v>1.391516635727879</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.460066173470912</v>
+        <v>1.301252002007255</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.761663515021773</v>
+        <v>1.358394035946961</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2623,10 +2623,10 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>1.641375389250216</v>
+        <v>1.686303767858787</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.612585141678212</v>
+        <v>1.298720724774574</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.353212682681761</v>
+        <v>1.41207309727445</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.406530912283737</v>
+        <v>1.527732685593322</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.432897755518641</v>
+        <v>1.711993434415796</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.618655119833518</v>
+        <v>1.518203643415856</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.52852565103561</v>
+        <v>1.566277198877445</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.576679035875866</v>
+        <v>1.545816021864487</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.396335522407851</v>
+        <v>1.48820760274497</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.683017887231119</v>
+        <v>1.356988414859833</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.359722954131045</v>
+        <v>1.666524728399889</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.547475212137426</v>
+        <v>1.412103879546196</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1.551152415127831</v>
+        <v>1.609498167242411</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.467553476426902</v>
+        <v>1.517561769982073</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.232474830166556</v>
+        <v>1.427133651106742</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.623671314827861</v>
+        <v>1.518052474694437</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.659176632098152</v>
+        <v>1.408466052269751</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.534877932139561</v>
+        <v>1.635550946164523</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2983,10 +2983,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>1.747260741247414</v>
+        <v>1.337906505668095</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.533110832037073</v>
+        <v>1.538278804839033</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.553806574071836</v>
+        <v>1.407943927446977</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.530870213947792</v>
+        <v>1.196138003880816</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.414921563796439</v>
+        <v>1.239350935755533</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.606232662442472</v>
+        <v>1.400952090199607</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.092459879875257</v>
+        <v>1.319597306322011</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.441557329499643</v>
+        <v>1.510179707786379</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.370640673709661</v>
+        <v>1.504857291240874</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.701052983593209</v>
+        <v>1.604392809229902</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.290201446011794</v>
+        <v>1.458339205964333</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.706632904941509</v>
+        <v>1.422505659077953</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.701654283232427</v>
+        <v>1.593744442623345</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.64364985868831</v>
+        <v>1.513729500856932</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>1.132136528382632</v>
+        <v>1.776660537317698</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.465291520491816</v>
+        <v>1.453594268018895</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.396348163714584</v>
+        <v>1.451072891230226</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.375038289197341</v>
+        <v>1.483075332663069</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.527509902066331</v>
+        <v>1.661098918310957</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.691865567933197</v>
+        <v>1.813778961504572</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.54367936326469</v>
+        <v>1.706157013859227</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.433584151724674</v>
+        <v>1.422030244909864</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.245215510275663</v>
+        <v>1.61156861184343</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.430579745534637</v>
+        <v>1.568491918606162</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.363400453290818</v>
+        <v>1.37087713389162</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.431021416042464</v>
+        <v>1.618395461431513</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.52360394632787</v>
+        <v>1.57201949901355</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.492819116142825</v>
+        <v>1.87339513530341</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.641258457520022</v>
+        <v>1.363210211419251</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.486654274331706</v>
+        <v>1.784156918496828</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.649237279508831</v>
+        <v>1.402802588121929</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.383410639627869</v>
+        <v>1.45838083159284</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.304307022144815</v>
+        <v>1.28717398750133</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.394821583154015</v>
+        <v>1.336991004855872</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.529125720973328</v>
+        <v>1.577861469796618</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.447512889542688</v>
+        <v>1.589674628499406</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.747719536635305</v>
+        <v>1.362364209506328</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.512007677171375</v>
+        <v>1.469622830386832</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.459076399874028</v>
+        <v>1.474027191080278</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.619869197081396</v>
+        <v>1.505320084983422</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.368260479952563</v>
+        <v>1.518647185498394</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.478607948723276</v>
+        <v>1.484358149906524</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.453797209788917</v>
+        <v>1.604760138742026</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.390830956311809</v>
+        <v>1.344611956617678</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.308749099004793</v>
+        <v>1.398521861331803</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.588825827330491</v>
+        <v>1.52541724395601</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.169505112991868</v>
+        <v>1.625626963046693</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.393790611470749</v>
+        <v>1.368663639124247</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.350383973596293</v>
+        <v>1.650479913344253</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.40394699347214</v>
+        <v>1.540037616177512</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.438218691997648</v>
+        <v>1.271702522451741</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.329631744227428</v>
+        <v>1.591114866501712</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.320723719790029</v>
+        <v>1.768521439942477</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.380975544408318</v>
+        <v>1.492625040363742</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.450115438212439</v>
+        <v>1.666656286346178</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.539401480443018</v>
+        <v>1.447497913876403</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.517573185340141</v>
+        <v>1.304815962633393</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.436603963696213</v>
+        <v>1.671222822423529</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.182808150526882</v>
+        <v>1.355509926828909</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.472048042953591</v>
+        <v>1.586837132175546</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.457171682144189</v>
+        <v>1.482733343616093</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.324594056209194</v>
+        <v>1.486971102844221</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.61091965856353</v>
+        <v>1.352269092943217</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.232389014645955</v>
+        <v>1.580552028158823</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.53987032987034</v>
+        <v>1.458673345166701</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.546199187997635</v>
+        <v>1.598064999633633</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.3820883086258</v>
+        <v>1.744740706197754</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.45851984855356</v>
+        <v>1.541125716623862</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.61806076853025</v>
+        <v>1.617726777527782</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.547307960271386</v>
+        <v>1.697907164325286</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.479582210888046</v>
+        <v>1.473345961689913</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.496503459571508</v>
+        <v>1.524690135054619</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.742544549207256</v>
+        <v>1.676774547238882</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.511373929721985</v>
+        <v>1.506716783255866</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.583639377311192</v>
+        <v>1.644630686945979</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.45307233609515</v>
+        <v>1.537224753365426</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.455391718256094</v>
+        <v>1.412390577967522</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.616577287617563</v>
+        <v>1.437823940986716</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.489702184894162</v>
+        <v>1.569443871821856</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.640985401694482</v>
+        <v>1.482315616112966</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.478569236016465</v>
+        <v>1.361221576631267</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.51505025585197</v>
+        <v>1.681674372016065</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.496728783760952</v>
+        <v>1.311721716364535</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.378626269981387</v>
+        <v>1.642893813652543</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4663,10 +4663,10 @@
         <v>2</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1.458419524121593</v>
+        <v>1.3837395760727</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.396209865593579</v>
+        <v>1.412603014519962</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.737074278341197</v>
+        <v>1.624637489816107</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.519844851272645</v>
+        <v>1.470681205446677</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.366420154143569</v>
+        <v>1.558271551459695</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.448315477105203</v>
+        <v>1.499216551081214</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.493437756939631</v>
+        <v>1.50413382084378</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.32866455054783</v>
+        <v>1.189703258427152</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183">
-        <v>1.719872058091575</v>
+        <v>1.399160024275927</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.577775300560414</v>
+        <v>1.518962958135543</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.384122396355921</v>
+        <v>1.486470291935634</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.289866563271697</v>
+        <v>1.341493107626348</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.360540138963585</v>
+        <v>1.409912645728876</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.41445788516096</v>
+        <v>1.608712145549395</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.373961607532276</v>
+        <v>1.641990947848664</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.629091003581825</v>
+        <v>1.540993126223531</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.532368099150822</v>
+        <v>1.603263598770372</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.505382222532445</v>
+        <v>1.435766965273196</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.459261909892834</v>
+        <v>1.418067181241212</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.438076427419088</v>
+        <v>1.404269579150946</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.274185302224765</v>
+        <v>1.240041972355105</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.484741940745422</v>
+        <v>1.57173577206389</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.633165793983116</v>
+        <v>1.661862898319876</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.544940704675588</v>
+        <v>1.584226232219497</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.584398368128551</v>
+        <v>1.578287946288278</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.340817027109699</v>
+        <v>1.401745520300145</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.466947324649432</v>
+        <v>1.344122522949205</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.450618979026677</v>
+        <v>1.221102358573955</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.450889324486292</v>
+        <v>1.305616975528127</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.416786816142705</v>
+        <v>1.405041810332636</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.705305122076511</v>
+        <v>1.517231467646211</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.341897256135551</v>
+        <v>1.512622067106665</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F207">
-        <v>1.132200913301275</v>
+        <v>1.621210095579306</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.3998438610317</v>
+        <v>1.301867332932813</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.591367879466101</v>
+        <v>1.547273849669179</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.753301375858957</v>
+        <v>1.574366498089277</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.569425223879144</v>
+        <v>1.561606509887555</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.451394055922961</v>
+        <v>1.599715079322257</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.492280710421177</v>
+        <v>1.434349272409716</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.275934920746401</v>
+        <v>1.556525555691703</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.404672106709281</v>
+        <v>1.258818497895346</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5483,10 +5483,10 @@
         <v>3</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>1.553374009779499</v>
+        <v>1.43854756002087</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.619460232177088</v>
+        <v>1.34531949442962</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.547853301582258</v>
+        <v>1.695818922770866</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.320490086114084</v>
+        <v>1.622023757455387</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.449815571660475</v>
+        <v>1.45568647745</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.518268696857277</v>
+        <v>1.340199563217022</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.238121549670729</v>
+        <v>1.599705025410599</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.627130608941701</v>
+        <v>1.526098908730896</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.470398097284567</v>
+        <v>1.402051703746368</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.334893151511719</v>
+        <v>1.359696552401794</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.360775761372142</v>
+        <v>1.564010594945044</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.432726697477009</v>
+        <v>1.303671486558702</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.367450387435296</v>
+        <v>1.673852932409233</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.688992053070954</v>
+        <v>1.416024277801003</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.590722417075297</v>
+        <v>1.506487229972792</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.384333811474898</v>
+        <v>1.72797988847134</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.299124544502305</v>
+        <v>1.697764759596714</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.440554207096024</v>
+        <v>1.650128705194078</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5843,10 +5843,10 @@
         <v>3</v>
       </c>
       <c r="E234">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>1.510971560016817</v>
+        <v>1.532941045124081</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.422710867496896</v>
+        <v>1.545220874189315</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.111384701238533</v>
+        <v>1.631987074132456</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.485034407728983</v>
+        <v>1.594289503014141</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.494546434983671</v>
+        <v>1.499864301662458</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.46139179570625</v>
+        <v>1.512866682056955</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.315028052802722</v>
+        <v>1.460675291949716</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.454130558808848</v>
+        <v>1.523598664487597</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242">
-        <v>1.494924734108526</v>
+        <v>1.297071752447513</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.514979380915087</v>
+        <v>1.320277187706702</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.569237530827461</v>
+        <v>1.613646761118755</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.407129743076152</v>
+        <v>1.422253424431786</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.612058778626834</v>
+        <v>1.444289995975214</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.853285452123144</v>
+        <v>1.665633662083715</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="F248">
-        <v>1.460092166477081</v>
+        <v>1.867365261669002</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.516787403232166</v>
+        <v>1.430905322288346</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.329455882062239</v>
+        <v>1.601146981880764</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.673733611720335</v>
+        <v>1.467173937685612</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.409448666329734</v>
+        <v>1.761212290180205</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.577569327957764</v>
+        <v>1.497324965245484</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.673127494304915</v>
+        <v>1.863213580959163</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.330051611273805</v>
+        <v>1.321631856283549</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.592764107614819</v>
+        <v>1.590320757941755</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.455529167404606</v>
+        <v>1.607130290020778</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
   </si>
   <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
     <t>dog/dog047.jpg</t>
   </si>
   <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
     <t>house/house038.jpg</t>
   </si>
   <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
     <t>dog/dog034.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>flower/flower057.jpg</t>
   </si>
   <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
+    <t>face/face060.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
   </si>
   <si>
     <t>dog/dog070.jpg</t>
   </si>
   <si>
-    <t>dog/dog064.jpg</t>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
   </si>
   <si>
     <t>face/face070.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
   </si>
   <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
-    <t>flower/flower078.jpg</t>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
   </si>
   <si>
     <t>dog/dog068.jpg</t>
   </si>
   <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
   </si>
   <si>
     <t>house/house090.jpg</t>
   </si>
   <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
   </si>
   <si>
     <t>house/house089.jpg</t>
   </si>
   <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
     <t>dog/dog093.jpg</t>
   </si>
   <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
     <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1.571547486670471</v>
+        <v>1.418370279441261</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.573337559949147</v>
+        <v>1.654052591708386</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.633762758726732</v>
+        <v>1.627854628206288</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.383242084206794</v>
+        <v>1.523403327682482</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.661860774767218</v>
+        <v>1.584666448239978</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.726673899865732</v>
+        <v>1.638961912841141</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.285940530228438</v>
+        <v>1.455614100105198</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.388119635826211</v>
+        <v>1.321447158657726</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.5576106125823</v>
+        <v>1.45577365550934</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.358293390228396</v>
+        <v>1.395254115270539</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.648290548332739</v>
+        <v>1.520863041044982</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.491532711925997</v>
+        <v>1.549826233428231</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.451324833702817</v>
+        <v>1.321313609305189</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.464451473315381</v>
+        <v>1.690483970283861</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.452330738090021</v>
+        <v>1.319119775774606</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.367793274572082</v>
+        <v>1.728015402057576</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.597321399308381</v>
+        <v>1.603227932723039</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1.446676099341181</v>
+        <v>1.418661231952437</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.480871759282053</v>
+        <v>1.641747990536849</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.57226129502953</v>
+        <v>1.432218423254524</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.35668930912254</v>
+        <v>1.300187929161679</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.74504941455277</v>
+        <v>1.319257698500866</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.372131138875923</v>
+        <v>1.565740220448898</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1.199314423338327</v>
+        <v>1.622826643266609</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.464645461102806</v>
+        <v>1.30591778875609</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.665828264301292</v>
+        <v>1.372380317243532</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.429684871292346</v>
+        <v>1.645781617244129</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.389261972039103</v>
+        <v>1.799857654098039</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.573473411771445</v>
+        <v>1.441395149619291</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.59083493284068</v>
+        <v>1.589596376930738</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1.49801931314324</v>
+        <v>1.624779960251488</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.584097565712251</v>
+        <v>1.320523706146269</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.330409022829292</v>
+        <v>1.375348736823472</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.513922475396573</v>
+        <v>1.509784322324471</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.748705099461922</v>
+        <v>1.628834101088549</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1.603232293066592</v>
+        <v>1.420156083500488</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.623314218861629</v>
+        <v>1.610658915036931</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.482164951802097</v>
+        <v>1.554534905983984</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.471200532321247</v>
+        <v>1.646958977987038</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.535303736705164</v>
+        <v>1.489711840211724</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.594986227500024</v>
+        <v>1.200286323892081</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.499606648978805</v>
+        <v>1.471596534068617</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.455541011065123</v>
+        <v>1.54533951803416</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.550894602112178</v>
+        <v>1.546899927565718</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.246952645304559</v>
+        <v>1.54237755592371</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.578396227727154</v>
+        <v>1.483108130060321</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.440418619554497</v>
+        <v>1.252074310044436</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.222484009784599</v>
+        <v>1.702987687617595</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.686291443038904</v>
+        <v>1.4676750040054</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.310625321804023</v>
+        <v>1.367795390079946</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.413108763120865</v>
+        <v>1.692186883687278</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.386112947289216</v>
+        <v>1.488536242044595</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.325512556061426</v>
+        <v>1.760758303534</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.570928156555921</v>
+        <v>1.607432627065594</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.283282603201498</v>
+        <v>1.449819643393792</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.470187188663672</v>
+        <v>1.439246982327223</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.282021996851351</v>
+        <v>1.410203120380769</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.652886421950449</v>
+        <v>1.393771576830503</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.733572960542553</v>
+        <v>1.538536290046487</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.444654625660218</v>
+        <v>1.526608463305072</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.588948412461298</v>
+        <v>1.66200007980827</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.49329462336465</v>
+        <v>1.5706888563417</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.600878150369464</v>
+        <v>1.387016279289387</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>1.642299925462874</v>
+        <v>1.310129832006654</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.710540842545222</v>
+        <v>1.662920158473916</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.49248806047092</v>
+        <v>1.519950335721838</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.158057476440164</v>
+        <v>1.386265220870104</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.443847088526738</v>
+        <v>1.523322983632093</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.391516635727879</v>
+        <v>1.315828174929535</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.301252002007255</v>
+        <v>1.359373355199971</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.358394035946961</v>
+        <v>1.276936398090089</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.686303767858787</v>
+        <v>1.453822828101045</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.298720724774574</v>
+        <v>1.639422655002023</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.41207309727445</v>
+        <v>1.42139518988071</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.527732685593322</v>
+        <v>1.466194029218946</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.711993434415796</v>
+        <v>1.561960075245987</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>1</v>
       </c>
       <c r="F78">
-        <v>1.518203643415856</v>
+        <v>1.480256495554095</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.566277198877445</v>
+        <v>1.643970862935863</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.545816021864487</v>
+        <v>1.493069061426446</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.48820760274497</v>
+        <v>1.276774122799888</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.356988414859833</v>
+        <v>1.38871563354322</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.666524728399889</v>
+        <v>1.436170892282282</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.412103879546196</v>
+        <v>1.598333924014829</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2863,10 +2863,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>1.609498167242411</v>
+        <v>1.548160549076599</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.517561769982073</v>
+        <v>1.481109272658087</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.427133651106742</v>
+        <v>1.484263272411884</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.518052474694437</v>
+        <v>1.364779110161983</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.408466052269751</v>
+        <v>1.417233985210731</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.635550946164523</v>
+        <v>1.715372965758325</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.337906505668095</v>
+        <v>1.198279614273932</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.538278804839033</v>
+        <v>1.353186818593012</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.407943927446977</v>
+        <v>1.558141630582646</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.196138003880816</v>
+        <v>1.593830513836231</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.239350935755533</v>
+        <v>1.250924584194542</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="F96">
-        <v>1.400952090199607</v>
+        <v>1.987589127049004</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.319597306322011</v>
+        <v>1.698601767839464</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.510179707786379</v>
+        <v>1.532017876080984</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.504857291240874</v>
+        <v>1.40320251205374</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.604392809229902</v>
+        <v>1.277915487319306</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.458339205964333</v>
+        <v>1.500058303416605</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.422505659077953</v>
+        <v>1.488970564989093</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.593744442623345</v>
+        <v>1.501547472121599</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.513729500856932</v>
+        <v>1.529413791531058</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3263,10 +3263,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>1.776660537317698</v>
+        <v>1.575420178626508</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.453594268018895</v>
+        <v>1.429688751635762</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.451072891230226</v>
+        <v>1.58782824030798</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.483075332663069</v>
+        <v>1.54154385397271</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.661098918310957</v>
+        <v>1.38199701683054</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.813778961504572</v>
+        <v>1.477100392219478</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.706157013859227</v>
+        <v>1.665072429363348</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.422030244909864</v>
+        <v>1.355758464444086</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.61156861184343</v>
+        <v>1.422487586107177</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.568491918606162</v>
+        <v>1.645536878639244</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.37087713389162</v>
+        <v>1.556144391809516</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.618395461431513</v>
+        <v>1.3905017000949</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>1.57201949901355</v>
+        <v>1.59420605739834</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.87339513530341</v>
+        <v>1.515800960596627</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.363210211419251</v>
+        <v>1.436874224606124</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.784156918496828</v>
+        <v>1.243222995637902</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.402802588121929</v>
+        <v>1.439453448081044</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.45838083159284</v>
+        <v>1.307812541142756</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.28717398750133</v>
+        <v>1.533038028687408</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.336991004855872</v>
+        <v>1.527783294236407</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.577861469796618</v>
+        <v>1.186857290604598</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.589674628499406</v>
+        <v>1.560308293281703</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.362364209506328</v>
+        <v>1.588857828858927</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.469622830386832</v>
+        <v>1.263302209123011</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.474027191080278</v>
+        <v>1.55950702727638</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.505320084983422</v>
+        <v>1.405036542449636</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.518647185498394</v>
+        <v>1.443652142297275</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.484358149906524</v>
+        <v>1.472636133575514</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.604760138742026</v>
+        <v>1.535472073503811</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.344611956617678</v>
+        <v>1.537720676359555</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.398521861331803</v>
+        <v>1.656448341480474</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.52541724395601</v>
+        <v>1.659515927156266</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.625626963046693</v>
+        <v>1.59267114675092</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.368663639124247</v>
+        <v>1.36685192080415</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.650479913344253</v>
+        <v>1.208297302412359</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140">
-        <v>1.540037616177512</v>
+        <v>1.576541706536752</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.271702522451741</v>
+        <v>1.440732348125627</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.591114866501712</v>
+        <v>1.425941926363645</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.768521439942477</v>
+        <v>1.424097756181757</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.492625040363742</v>
+        <v>1.625199097816806</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.666656286346178</v>
+        <v>1.537776652916654</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.447497913876403</v>
+        <v>1.611371923864374</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.304815962633393</v>
+        <v>1.723518033515936</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.671222822423529</v>
+        <v>1.35781099978208</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.355509926828909</v>
+        <v>1.618520182991547</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.586837132175546</v>
+        <v>1.342295036970124</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.482733343616093</v>
+        <v>1.508503163296662</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.486971102844221</v>
+        <v>1.495579732143175</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153">
-        <v>1.352269092943217</v>
+        <v>1.339912810820641</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.580552028158823</v>
+        <v>1.563301475320057</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.458673345166701</v>
+        <v>1.697939459664954</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.598064999633633</v>
+        <v>1.154776219186507</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.744740706197754</v>
+        <v>1.438415844468057</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.541125716623862</v>
+        <v>1.443873671485949</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.617726777527782</v>
+        <v>1.752767464529829</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.697907164325286</v>
+        <v>1.723328829887906</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.473345961689913</v>
+        <v>1.341647919600017</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.524690135054619</v>
+        <v>1.370989278512739</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.676774547238882</v>
+        <v>1.689277566664293</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.506716783255866</v>
+        <v>1.393333705256378</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.644630686945979</v>
+        <v>1.65143766769634</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.537224753365426</v>
+        <v>1.567716850920058</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.412390577967522</v>
+        <v>1.282075495783589</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.437823940986716</v>
+        <v>1.294149297242918</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.569443871821856</v>
+        <v>1.521871664729871</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.482315616112966</v>
+        <v>1.376858884124428</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.361221576631267</v>
+        <v>1.457792416754044</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.681674372016065</v>
+        <v>1.647588419059675</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.311721716364535</v>
+        <v>1.604985092553744</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.642893813652543</v>
+        <v>1.573609964261989</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.3837395760727</v>
+        <v>1.737675216171017</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.412603014519962</v>
+        <v>1.544714304311162</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.624637489816107</v>
+        <v>1.285042237796685</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.470681205446677</v>
+        <v>1.585104693797073</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.558271551459695</v>
+        <v>1.328089478161977</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.499216551081214</v>
+        <v>1.326521282539303</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.50413382084378</v>
+        <v>1.460627526770921</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.189703258427152</v>
+        <v>1.437708099139128</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="F183">
-        <v>1.399160024275927</v>
+        <v>1.752095667525909</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F184">
-        <v>1.518962958135543</v>
+        <v>1.438631325226363</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.486470291935634</v>
+        <v>1.565364244104624</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.341493107626348</v>
+        <v>1.435638144115609</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F187">
-        <v>1.409912645728876</v>
+        <v>1.624556176678952</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.608712145549395</v>
+        <v>1.661319989583179</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.641990947848664</v>
+        <v>1.742781186983837</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.540993126223531</v>
+        <v>1.612644377832841</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.603263598770372</v>
+        <v>1.39616387742438</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.435766965273196</v>
+        <v>1.259506332110594</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.418067181241212</v>
+        <v>1.469856356200847</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.404269579150946</v>
+        <v>1.802490213815037</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195">
-        <v>1.240041972355105</v>
+        <v>1.681969424638311</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F196">
-        <v>1.57173577206389</v>
+        <v>1.449719164132822</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.661862898319876</v>
+        <v>1.633913471591702</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.584226232219497</v>
+        <v>1.295903410652535</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.578287946288278</v>
+        <v>1.499482078425717</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.401745520300145</v>
+        <v>1.844194794772492</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.344122522949205</v>
+        <v>1.484124328335625</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.221102358573955</v>
+        <v>1.655797508962053</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203">
-        <v>1.305616975528127</v>
+        <v>1.534126861209086</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.405041810332636</v>
+        <v>1.233654543592541</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F205">
-        <v>1.517231467646211</v>
+        <v>1.71260750893677</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.512622067106665</v>
+        <v>1.206726440428313</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5303,10 +5303,10 @@
         <v>3</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>1.621210095579306</v>
+        <v>1.528778341560941</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.301867332932813</v>
+        <v>1.627661098444612</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.547273849669179</v>
+        <v>1.555399408226126</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.574366498089277</v>
+        <v>1.731806695805975</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="F211">
-        <v>1.561606509887555</v>
+        <v>1.5709619728738</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.599715079322257</v>
+        <v>1.528927256368619</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.434349272409716</v>
+        <v>1.455346751035241</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.556525555691703</v>
+        <v>1.693011042126529</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.258818497895346</v>
+        <v>1.215256807530379</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.43854756002087</v>
+        <v>1.891928681863884</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.34531949442962</v>
+        <v>1.487428505352914</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.695818922770866</v>
+        <v>1.346669122595599</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.622023757455387</v>
+        <v>1.704433925322695</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.45568647745</v>
+        <v>1.365348515931502</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.340199563217022</v>
+        <v>1.762065612008387</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.599705025410599</v>
+        <v>1.773459576070588</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.526098908730896</v>
+        <v>1.224450387010116</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.402051703746368</v>
+        <v>1.510036161129628</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.359696552401794</v>
+        <v>1.442589627057769</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.564010594945044</v>
+        <v>1.358844348670218</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.303671486558702</v>
+        <v>1.718258573362734</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228">
-        <v>1.673852932409233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.416024277801003</v>
+        <v>1.189724555966653</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.506487229972792</v>
+        <v>1.620954865514684</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.72797988847134</v>
+        <v>1.496545194070298</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.697764759596714</v>
+        <v>1.661151487470382</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.650128705194078</v>
+        <v>1.478674157743412</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.532941045124081</v>
+        <v>1.435962038228685</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.545220874189315</v>
+        <v>1.308838101437732</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.631987074132456</v>
+        <v>1.509968162636226</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.594289503014141</v>
+        <v>1.328193333580156</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.499864301662458</v>
+        <v>1.175911240794016</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.512866682056955</v>
+        <v>1.312999045573129</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.460675291949716</v>
+        <v>1.55601712680708</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.523598664487597</v>
+        <v>1.468483735423838</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6003,10 +6003,10 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242">
-        <v>1.297071752447513</v>
+        <v>1.391396146963025</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.320277187706702</v>
+        <v>1.376983513183001</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.613646761118755</v>
+        <v>1.233922100380822</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.422253424431786</v>
+        <v>1.638833038579127</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.444289995975214</v>
+        <v>1.411505806825751</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.665633662083715</v>
+        <v>1.854733021662204</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.867365261669002</v>
+        <v>1.431122000527185</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.430905322288346</v>
+        <v>1.451204272737587</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.601146981880764</v>
+        <v>1.456358032616266</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.467173937685612</v>
+        <v>1.512717863074184</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.761212290180205</v>
+        <v>1.441669096697635</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.497324965245484</v>
+        <v>1.553852284218904</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.863213580959163</v>
+        <v>1.769717650785068</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.321631856283549</v>
+        <v>1.625338869249952</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.590320757941755</v>
+        <v>1.50479139002153</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.607130290020778</v>
+        <v>1.29320340682559</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
+    <t>dog</t>
   </si>
   <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
     <t>flower/flower036.jpg</t>
   </si>
   <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
     <t>house/house035.jpg</t>
   </si>
   <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
   </si>
   <si>
     <t>face/face047.jpg</t>
   </si>
   <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
   </si>
   <si>
     <t>house/house034.jpg</t>
   </si>
   <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
   </si>
   <si>
     <t>face/face038.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
   </si>
   <si>
     <t>face/face051.jpg</t>
   </si>
   <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
     <t>flower/flower054.jpg</t>
   </si>
   <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
   </si>
   <si>
     <t>flower/flower051.jpg</t>
   </si>
   <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
   </si>
   <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
     <t>flower/flower086.jpg</t>
   </si>
   <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
     <t>dog/dog094.jpg</t>
   </si>
   <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
   </si>
   <si>
     <t>flower/flower085.jpg</t>
   </si>
   <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1.418370279441261</v>
+        <v>1.363510449998617</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.654052591708386</v>
+        <v>1.424389233124005</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.627854628206288</v>
+        <v>1.153816931873863</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.523403327682482</v>
+        <v>1.317853439385753</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.584666448239978</v>
+        <v>1.636406285107365</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.638961912841141</v>
+        <v>1.650074814160992</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.455614100105198</v>
+        <v>1.40829008700279</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.321447158657726</v>
+        <v>1.355539424037574</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.45577365550934</v>
+        <v>1.458541142003091</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.395254115270539</v>
+        <v>1.424337345432861</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.520863041044982</v>
+        <v>1.422184875052744</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.549826233428231</v>
+        <v>1.478352536349822</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.321313609305189</v>
+        <v>1.173028080274169</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.690483970283861</v>
+        <v>1.248275073087154</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.319119775774606</v>
+        <v>1.499450970445457</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.728015402057576</v>
+        <v>1.451689124796335</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.603227932723039</v>
+        <v>1.378863673857687</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.418661231952437</v>
+        <v>1.593769715170563</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.641747990536849</v>
+        <v>1.461603343419313</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.432218423254524</v>
+        <v>1.494562284183183</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.300187929161679</v>
+        <v>1.492269270446992</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.319257698500866</v>
+        <v>1.720640573799757</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.565740220448898</v>
+        <v>1.707743007641963</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.622826643266609</v>
+        <v>1.451633108498926</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.30591778875609</v>
+        <v>1.405579371417933</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.372380317243532</v>
+        <v>1.581677430677828</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.645781617244129</v>
+        <v>1.525807514899095</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.799857654098039</v>
+        <v>1.342842204111308</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.441395149619291</v>
+        <v>1.753698722052623</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.589596376930738</v>
+        <v>1.312936868291503</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.624779960251488</v>
+        <v>1.548457599926557</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1.320523706146269</v>
+        <v>1.454454009909207</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.375348736823472</v>
+        <v>1.543329419975303</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.509784322324471</v>
+        <v>1.493443205657313</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.628834101088549</v>
+        <v>1.348447603285881</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.420156083500488</v>
+        <v>1.630111490004107</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.610658915036931</v>
+        <v>1.587897004443435</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.554534905983984</v>
+        <v>1.257392875672405</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.646958977987038</v>
+        <v>1.261919095226093</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.489711840211724</v>
+        <v>1.395513700626464</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.200286323892081</v>
+        <v>1.372435745074478</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.471596534068617</v>
+        <v>1.32861345365046</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.54533951803416</v>
+        <v>1.439736048655347</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.546899927565718</v>
+        <v>1.619190697993793</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.54237755592371</v>
+        <v>1.672141386988426</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.483108130060321</v>
+        <v>1.212660507363143</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.252074310044436</v>
+        <v>1.539529618736428</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.702987687617595</v>
+        <v>1.527445751876904</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1.4676750040054</v>
+        <v>1.284228246574177</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.367795390079946</v>
+        <v>1.652460376154345</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.692186883687278</v>
+        <v>1.424153699127852</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.488536242044595</v>
+        <v>1.550211491924711</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.760758303534</v>
+        <v>1.555012564260074</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.607432627065594</v>
+        <v>1.295378346448017</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.449819643393792</v>
+        <v>1.247568759312981</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.439246982327223</v>
+        <v>1.387090853803998</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.410203120380769</v>
+        <v>1.321586695617105</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.393771576830503</v>
+        <v>1.469140492446003</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.538536290046487</v>
+        <v>1.227271096277525</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.526608463305072</v>
+        <v>1.552737865858204</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.66200007980827</v>
+        <v>1.435073088822139</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63">
-        <v>1.5706888563417</v>
+        <v>1.52229220248346</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.387016279289387</v>
+        <v>1.476281319051778</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2463,10 +2463,10 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>1.310129832006654</v>
+        <v>1.689585747757689</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.662920158473916</v>
+        <v>1.459588218307393</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.519950335721838</v>
+        <v>1.655900539123166</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.386265220870104</v>
+        <v>1.528398338249542</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.523322983632093</v>
+        <v>1.33780624741747</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.315828174929535</v>
+        <v>1.332915520559769</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.359373355199971</v>
+        <v>1.569429176480678</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.276936398090089</v>
+        <v>1.340517861941209</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.453822828101045</v>
+        <v>1.486354124352171</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.639422655002023</v>
+        <v>1.649103193114123</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.42139518988071</v>
+        <v>1.426684251156229</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.466194029218946</v>
+        <v>1.740310562680051</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.561960075245987</v>
+        <v>1.634535533394727</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.480256495554095</v>
+        <v>1.485665329985969</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.643970862935863</v>
+        <v>1.59407794478204</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.493069061426446</v>
+        <v>1.368701607227351</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.276774122799888</v>
+        <v>1.689544981413078</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.38871563354322</v>
+        <v>1.606596224079159</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.436170892282282</v>
+        <v>1.514681597123645</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.598333924014829</v>
+        <v>1.492045981229506</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.548160549076599</v>
+        <v>1.44260668963727</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.481109272658087</v>
+        <v>1.532210932380783</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.484263272411884</v>
+        <v>1.38748044166772</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.364779110161983</v>
+        <v>1.742587811365085</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.417233985210731</v>
+        <v>1.547748803159802</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.715372965758325</v>
+        <v>1.491394224806063</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.198279614273932</v>
+        <v>1.298948633538161</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.353186818593012</v>
+        <v>1.58046094661953</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>1.558141630582646</v>
+        <v>1.258153939880878</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.593830513836231</v>
+        <v>1.482162168594782</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.250924584194542</v>
+        <v>1.035447912916114</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.987589127049004</v>
+        <v>1.673330205505333</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.698601767839464</v>
+        <v>1.437956528304678</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.532017876080984</v>
+        <v>1.476088521419894</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.40320251205374</v>
+        <v>1.313581251608861</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.277915487319306</v>
+        <v>1.642096124869978</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.500058303416605</v>
+        <v>1.63792979058603</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.488970564989093</v>
+        <v>1.545821721390719</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.501547472121599</v>
+        <v>1.577936491396762</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.529413791531058</v>
+        <v>1.559692011360927</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.575420178626508</v>
+        <v>1.665071983523847</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.429688751635762</v>
+        <v>1.498552189596052</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.58782824030798</v>
+        <v>1.25995477719849</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.54154385397271</v>
+        <v>1.605203897174865</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.38199701683054</v>
+        <v>1.872719134291448</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.477100392219478</v>
+        <v>1.38499300872845</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.665072429363348</v>
+        <v>1.398275437619444</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.355758464444086</v>
+        <v>1.482198560974638</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.422487586107177</v>
+        <v>1.458485098936211</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>1.645536878639244</v>
+        <v>1.760589191884652</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.556144391809516</v>
+        <v>1.570423242158131</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.3905017000949</v>
+        <v>1.595243972491615</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="F117">
-        <v>1.59420605739834</v>
+        <v>1.509603542981527</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.515800960596627</v>
+        <v>1.525563096945582</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.436874224606124</v>
+        <v>1.5801219154919</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.243222995637902</v>
+        <v>1.364670202601228</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.439453448081044</v>
+        <v>1.470885248369285</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.307812541142756</v>
+        <v>1.195510061519353</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.533038028687408</v>
+        <v>1.160443312567605</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.527783294236407</v>
+        <v>1.766785309401546</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.186857290604598</v>
+        <v>1.740470532224004</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.560308293281703</v>
+        <v>1.496000052225095</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.588857828858927</v>
+        <v>1.53418056959326</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.263302209123011</v>
+        <v>1.472170385228228</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.55950702727638</v>
+        <v>1.474527193494352</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.405036542449636</v>
+        <v>1.434886547613116</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.443652142297275</v>
+        <v>1.532733158241367</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.472636133575514</v>
+        <v>1.32136780258093</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.535472073503811</v>
+        <v>1.384755528171888</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.537720676359555</v>
+        <v>1.553041972140475</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.656448341480474</v>
+        <v>1.484585885540393</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.659515927156266</v>
+        <v>1.49406046320396</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F137">
-        <v>1.59267114675092</v>
+        <v>1.276666462190436</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.36685192080415</v>
+        <v>1.547514039889329</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.208297302412359</v>
+        <v>1.262616472715552</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3963,10 +3963,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>1.576541706536752</v>
+        <v>1.352941516224032</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.440732348125627</v>
+        <v>1.591535319100532</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142">
-        <v>1.425941926363645</v>
+        <v>1.305222687621426</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.424097756181757</v>
+        <v>1.430950159135791</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.625199097816806</v>
+        <v>1.476065554345415</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.537776652916654</v>
+        <v>1.855084410680836</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.611371923864374</v>
+        <v>1.548037138227327</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.723518033515936</v>
+        <v>1.682537579606234</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.35781099978208</v>
+        <v>1.510673489072792</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.618520182991547</v>
+        <v>1.645686590025719</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.342295036970124</v>
+        <v>1.655378903913628</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.508503163296662</v>
+        <v>1.843070961268462</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.495579732143175</v>
+        <v>1.718561300677863</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4223,10 +4223,10 @@
         <v>2</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>1.339912810820641</v>
+        <v>1.415092154780679</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.563301475320057</v>
+        <v>1.241369334126875</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.697939459664954</v>
+        <v>1.480275580306393</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.154776219186507</v>
+        <v>1.436900225132449</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.438415844468057</v>
+        <v>1.498502109029908</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.443873671485949</v>
+        <v>1.581435359615095</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.752767464529829</v>
+        <v>1.515186696731079</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.723328829887906</v>
+        <v>1.327920656371398</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.341647919600017</v>
+        <v>1.611117450125717</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.370989278512739</v>
+        <v>1.747720610543224</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.689277566664293</v>
+        <v>1.59035970928999</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.393333705256378</v>
+        <v>1.178130173106549</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165">
-        <v>1.65143766769634</v>
+        <v>1.598568536781077</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.567716850920058</v>
+        <v>1.660401363966615</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.282075495783589</v>
+        <v>1.45427252501984</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.294149297242918</v>
+        <v>1.453760793546764</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.521871664729871</v>
+        <v>1.590815866957124</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.376858884124428</v>
+        <v>1.418635666937596</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.457792416754044</v>
+        <v>1.646523768709938</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.647588419059675</v>
+        <v>1.583896065751984</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.604985092553744</v>
+        <v>1.411810592970095</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.573609964261989</v>
+        <v>1.40216474426562</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.737675216171017</v>
+        <v>1.589764334982786</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.544714304311162</v>
+        <v>1.713031053377432</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177">
-        <v>1.285042237796685</v>
+        <v>1.571450137671237</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.585104693797073</v>
+        <v>1.549340367183921</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.328089478161977</v>
+        <v>1.431223179307052</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.326521282539303</v>
+        <v>1.512567690344484</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.460627526770921</v>
+        <v>1.381328766960144</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.437708099139128</v>
+        <v>1.573674403366583</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4823,10 +4823,10 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>1.752095667525909</v>
+        <v>1.421211435266398</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.438631325226363</v>
+        <v>1.607840204739237</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.565364244104624</v>
+        <v>1.311635377554282</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.435638144115609</v>
+        <v>1.380329675554116</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4903,10 +4903,10 @@
         <v>2</v>
       </c>
       <c r="E187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>1.624556176678952</v>
+        <v>1.576847199652352</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.661319989583179</v>
+        <v>1.478726565765489</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.742781186983837</v>
+        <v>1.291816554462242</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.612644377832841</v>
+        <v>1.396691143685444</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.39616387742438</v>
+        <v>1.37913370755901</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.259506332110594</v>
+        <v>1.356411880933898</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.469856356200847</v>
+        <v>1.542871196858979</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.802490213815037</v>
+        <v>1.583503972308701</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>1.681969424638311</v>
+        <v>1.831821097499554</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5083,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>1.449719164132822</v>
+        <v>1.417096731242442</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.633913471591702</v>
+        <v>1.402898165344193</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.295903410652535</v>
+        <v>1.50386079628713</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.499482078425717</v>
+        <v>1.778799025966629</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.844194794772492</v>
+        <v>1.391857455880073</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.484124328335625</v>
+        <v>1.482760177341988</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.655797508962053</v>
+        <v>1.443100711078471</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5223,10 +5223,10 @@
         <v>3</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>1.534126861209086</v>
+        <v>1.572822649748177</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.233654543592541</v>
+        <v>1.531894250238062</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5263,10 +5263,10 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>1.71260750893677</v>
+        <v>1.221458950428145</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.206726440428313</v>
+        <v>1.501195808811639</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.528778341560941</v>
+        <v>1.580831195761986</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.627661098444612</v>
+        <v>1.560014536392089</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.555399408226126</v>
+        <v>1.548575154635721</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.731806695805975</v>
+        <v>1.475096542943481</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.5709619728738</v>
+        <v>1.616252368724879</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.528927256368619</v>
+        <v>1.118524074494319</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.455346751035241</v>
+        <v>1.460709279246527</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.693011042126529</v>
+        <v>1.343339543462635</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.215256807530379</v>
+        <v>1.383971549299061</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.891928681863884</v>
+        <v>1.769654850176579</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.487428505352914</v>
+        <v>1.287519111460129</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.346669122595599</v>
+        <v>1.457299294169632</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.704433925322695</v>
+        <v>1.522627142712068</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.365348515931502</v>
+        <v>1.546548563023804</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.762065612008387</v>
+        <v>1.205851022385879</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.773459576070588</v>
+        <v>1.49035800250593</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.224450387010116</v>
+        <v>1.259118067931594</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.510036161129628</v>
+        <v>1.375143982491268</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.442589627057769</v>
+        <v>1.485208633494578</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.358844348670218</v>
+        <v>1.54379288295088</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.718258573362734</v>
+        <v>1.700055663828937</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>1.582672339069663</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.189724555966653</v>
+        <v>1.320038917547599</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.620954865514684</v>
+        <v>1.406519970252841</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.496545194070298</v>
+        <v>1.5639622082008</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.661151487470382</v>
+        <v>1.413422877756132</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.478674157743412</v>
+        <v>1.341030694712634</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.435962038228685</v>
+        <v>1.390975993122347</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.308838101437732</v>
+        <v>1.397380302409809</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.509968162636226</v>
+        <v>1.89618385072572</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.328193333580156</v>
+        <v>1.294366840268629</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.175911240794016</v>
+        <v>1.545123425141178</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.312999045573129</v>
+        <v>1.471591397721737</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.55601712680708</v>
+        <v>1.579084167257732</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.468483735423838</v>
+        <v>1.40611122572833</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.391396146963025</v>
+        <v>1.458541405329513</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.376983513183001</v>
+        <v>1.618386805548427</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.233922100380822</v>
+        <v>1.281486785811098</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.638833038579127</v>
+        <v>1.191556070793409</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.411505806825751</v>
+        <v>1.303712391763778</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.854733021662204</v>
+        <v>1.433545402841758</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.431122000527185</v>
+        <v>1.450353187158951</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F249">
-        <v>1.451204272737587</v>
+        <v>1.591380708663971</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.456358032616266</v>
+        <v>1.379606806296199</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F251">
-        <v>1.512717863074184</v>
+        <v>1.256828031499503</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.441669096697635</v>
+        <v>1.662994355143345</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.553852284218904</v>
+        <v>1.789913047212251</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F254">
-        <v>1.769717650785068</v>
+        <v>1.545645126692167</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.625338869249952</v>
+        <v>1.862650416165238</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.50479139002153</v>
+        <v>1.570994021011788</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.29320340682559</v>
+        <v>1.689055923720251</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>flower</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>house</t>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
   </si>
   <si>
     <t>flower/flower042.jpg</t>
   </si>
   <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
   </si>
   <si>
     <t>dog/dog036.jpg</t>
   </si>
   <si>
-    <t>house/house032.jpg</t>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
   </si>
   <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
   </si>
   <si>
     <t>flower/flower034.jpg</t>
   </si>
   <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
   </si>
   <si>
     <t>face/face061.jpg</t>
   </si>
   <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
     <t>flower/flower055.jpg</t>
   </si>
   <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
     <t>face/face048.jpg</t>
   </si>
   <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
     <t>flower/flower052.jpg</t>
   </si>
   <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>flower/flower080.jpg</t>
   </si>
   <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
   </si>
   <si>
     <t>dog/dog087.jpg</t>
   </si>
   <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
     <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.363510449998617</v>
+        <v>1.447079216805052</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.424389233124005</v>
+        <v>1.569508671040855</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.153816931873863</v>
+        <v>1.390521124571131</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.317853439385753</v>
+        <v>1.50506354372941</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.636406285107365</v>
+        <v>1.705642870807101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.650074814160992</v>
+        <v>1.362647007769754</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.40829008700279</v>
+        <v>1.673867017124571</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.355539424037574</v>
+        <v>1.391385984832795</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.458541142003091</v>
+        <v>1.293639289478815</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.424337345432861</v>
+        <v>1.503259847616108</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.422184875052744</v>
+        <v>1.617507626496833</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.478352536349822</v>
+        <v>1.450227381986271</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.173028080274169</v>
+        <v>1.544604373108901</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.248275073087154</v>
+        <v>1.538173134953167</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.499450970445457</v>
+        <v>1.674481697097235</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.451689124796335</v>
+        <v>1.232513628707897</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.378863673857687</v>
+        <v>1.238457152789947</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.593769715170563</v>
+        <v>1.344236002246631</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.461603343419313</v>
+        <v>1.58692195294871</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.494562284183183</v>
+        <v>1.471912808832552</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.492269270446992</v>
+        <v>1.46812179929889</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.720640573799757</v>
+        <v>1.433731663007183</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.707743007641963</v>
+        <v>1.636270711744855</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.451633108498926</v>
+        <v>1.410947397575373</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.405579371417933</v>
+        <v>1.58531388014294</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.581677430677828</v>
+        <v>1.609182191301439</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.525807514899095</v>
+        <v>1.44083813440514</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.342842204111308</v>
+        <v>1.520071840123018</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.753698722052623</v>
+        <v>1.632169199320194</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.312936868291503</v>
+        <v>1.340368990359301</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.548457599926557</v>
+        <v>1.442655017930156</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.454454009909207</v>
+        <v>1.543084096553743</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.543329419975303</v>
+        <v>1.398362454378926</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.493443205657313</v>
+        <v>1.644607786469273</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.348447603285881</v>
+        <v>1.525202973602976</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.630111490004107</v>
+        <v>1.662492361502049</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.587897004443435</v>
+        <v>1.547958345146888</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.257392875672405</v>
+        <v>1.496828683243674</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.261919095226093</v>
+        <v>1.290027182658336</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.395513700626464</v>
+        <v>1.342226806504723</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.372435745074478</v>
+        <v>1.692806323731604</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.32861345365046</v>
+        <v>1.296722749399586</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.439736048655347</v>
+        <v>1.67546780641275</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>1.619190697993793</v>
+        <v>1.492052752605443</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.672141386988426</v>
+        <v>1.390838509901864</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.212660507363143</v>
+        <v>1.387051951819281</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1.539529618736428</v>
+        <v>1.650379445450604</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.527445751876904</v>
+        <v>1.772280777813734</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>1.284228246574177</v>
+        <v>1.599039201902373</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.652460376154345</v>
+        <v>1.526938390970985</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.424153699127852</v>
+        <v>1.175506692249828</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.550211491924711</v>
+        <v>1.380825493499355</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.555012564260074</v>
+        <v>1.775122315891196</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.295378346448017</v>
+        <v>1.268169898653116</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.247568759312981</v>
+        <v>1.379746625671859</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.387090853803998</v>
+        <v>1.649767052229967</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.321586695617105</v>
+        <v>1.67276727886532</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.469140492446003</v>
+        <v>1.287478624350537</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.227271096277525</v>
+        <v>1.654156436490332</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>1.552737865858204</v>
+        <v>1.471067303749988</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.435073088822139</v>
+        <v>1.572132488238092</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>1.52229220248346</v>
+        <v>1.833474175212429</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.476281319051778</v>
+        <v>1.543936126211772</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.689585747757689</v>
+        <v>1.708718230385262</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.459588218307393</v>
+        <v>1.244991258998835</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.655900539123166</v>
+        <v>1.500970948116192</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68">
-        <v>1.528398338249542</v>
+        <v>1.589039348691386</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.33780624741747</v>
+        <v>1.569154968901144</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.332915520559769</v>
+        <v>1.386303509837028</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.569429176480678</v>
+        <v>1.573080922050139</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.340517861941209</v>
+        <v>1.169087373561852</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.486354124352171</v>
+        <v>1.160888198019602</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.649103193114123</v>
+        <v>1.560879336499894</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>1.426684251156229</v>
+        <v>1.246578379182314</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.740310562680051</v>
+        <v>1.471062415576495</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.634535533394727</v>
+        <v>1.605786475353941</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>1.485665329985969</v>
+        <v>1.680893786996436</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.59407794478204</v>
+        <v>1.310671210926493</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.368701607227351</v>
+        <v>1.44752939283008</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.689544981413078</v>
+        <v>1.581117769998234</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>1.606596224079159</v>
+        <v>1.561137658977969</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.514681597123645</v>
+        <v>1.39006302016626</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.492045981229506</v>
+        <v>1.431933739761101</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.44260668963727</v>
+        <v>1.321238079827399</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.532210932380783</v>
+        <v>1.593482249315652</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.38748044166772</v>
+        <v>1.674188677640604</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.742587811365085</v>
+        <v>1.452881079561984</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.547748803159802</v>
+        <v>1.274734818900076</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.491394224806063</v>
+        <v>1.537312017941146</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.298948633538161</v>
+        <v>1.510825141204992</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.58046094661953</v>
+        <v>1.363234618262192</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3023,10 +3023,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>1.258153939880878</v>
+        <v>1.444556596675649</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.482162168594782</v>
+        <v>1.40174509199746</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.035447912916114</v>
+        <v>1.368152338463874</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.673330205505333</v>
+        <v>1.55283892905413</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.437956528304678</v>
+        <v>1.354741948946269</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>1.476088521419894</v>
+        <v>1.240840648433511</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.313581251608861</v>
+        <v>1.754696922625462</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.642096124869978</v>
+        <v>1.568877073189374</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.63792979058603</v>
+        <v>1.561654032628203</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.545821721390719</v>
+        <v>1.796719129742642</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.577936491396762</v>
+        <v>1.772654466913862</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.559692011360927</v>
+        <v>1.403686259463868</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.665071983523847</v>
+        <v>1.643044849723911</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.498552189596052</v>
+        <v>1.402837782323071</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.25995477719849</v>
+        <v>1.45967156109949</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.605203897174865</v>
+        <v>1.483580032580847</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>1.872719134291448</v>
+        <v>1.54050700603087</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.38499300872845</v>
+        <v>1.596818230916401</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.398275437619444</v>
+        <v>1.481469913545981</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.482198560974638</v>
+        <v>1.291531293387052</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.458485098936211</v>
+        <v>1.542744837548772</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3443,10 +3443,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>1.760589191884652</v>
+        <v>1.193042820137234</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.570423242158131</v>
+        <v>1.638643558382411</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.595243972491615</v>
+        <v>1.332810645617846</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.509603542981527</v>
+        <v>1.653435243692178</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.525563096945582</v>
+        <v>1.331261485265241</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.5801219154919</v>
+        <v>1.427799614196406</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.364670202601228</v>
+        <v>1.454573827841293</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.470885248369285</v>
+        <v>1.530165965511156</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.195510061519353</v>
+        <v>1.619955515706498</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.160443312567605</v>
+        <v>1.550250936555281</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.766785309401546</v>
+        <v>1.778968327545147</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="F125">
-        <v>1.740470532224004</v>
+        <v>1.52557608423713</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.496000052225095</v>
+        <v>1.48440762723057</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.53418056959326</v>
+        <v>1.5110969475669</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.472170385228228</v>
+        <v>1.62226210009653</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.474527193494352</v>
+        <v>1.546354139590125</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.434886547613116</v>
+        <v>1.499820470604541</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.532733158241367</v>
+        <v>1.450043018604688</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.32136780258093</v>
+        <v>1.612740104027949</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.384755528171888</v>
+        <v>1.595904834985529</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.553041972140475</v>
+        <v>1.560208798782044</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.484585885540393</v>
+        <v>1.64308855552231</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136">
-        <v>1.49406046320396</v>
+        <v>1.694081365101002</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>1.276666462190436</v>
+        <v>1.273555862760528</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.547514039889329</v>
+        <v>1.634581717455643</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.262616472715552</v>
+        <v>1.592861190799581</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.352941516224032</v>
+        <v>1.677672341842356</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.591535319100532</v>
+        <v>1.484230402042652</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.305222687621426</v>
+        <v>1.567690696973671</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.430950159135791</v>
+        <v>1.67420340958658</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.476065554345415</v>
+        <v>1.284524735086358</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.855084410680836</v>
+        <v>1.35804896322385</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.548037138227327</v>
+        <v>1.556840336710838</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.682537579606234</v>
+        <v>1.369834202493045</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.510673489072792</v>
+        <v>1.392468346539799</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.645686590025719</v>
+        <v>1.408326253112593</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.655378903913628</v>
+        <v>1.878645839069246</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.843070961268462</v>
+        <v>1.36721013658029</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.718561300677863</v>
+        <v>1.672994542967813</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.415092154780679</v>
+        <v>1.652695049152667</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.241369334126875</v>
+        <v>1.328062644912006</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.480275580306393</v>
+        <v>1.466237698402774</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.436900225132449</v>
+        <v>1.363783039375065</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.498502109029908</v>
+        <v>1.518426923736017</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.581435359615095</v>
+        <v>1.456437383803208</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.515186696731079</v>
+        <v>1.504404380453971</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.327920656371398</v>
+        <v>1.388205521406156</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.611117450125717</v>
+        <v>1.305422211850268</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.747720610543224</v>
+        <v>1.473443651033262</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163">
-        <v>1.59035970928999</v>
+        <v>1.545478453195863</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.178130173106549</v>
+        <v>1.438932913458334</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>1.598568536781077</v>
+        <v>1.48400021541773</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F166">
-        <v>1.660401363966615</v>
+        <v>1.202900437246814</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.45427252501984</v>
+        <v>1.260436629965035</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.453760793546764</v>
+        <v>1.491021171454767</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.590815866957124</v>
+        <v>1.472034379799123</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.418635666937596</v>
+        <v>1.491659737170024</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.646523768709938</v>
+        <v>1.447960870429255</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.583896065751984</v>
+        <v>1.49388542757777</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.411810592970095</v>
+        <v>1.65527033396014</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.40216474426562</v>
+        <v>1.32355257881465</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.589764334982786</v>
+        <v>1.78893718582673</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.713031053377432</v>
+        <v>1.188950724464718</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4703,10 +4703,10 @@
         <v>2</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>1.571450137671237</v>
+        <v>1.530368972612695</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.549340367183921</v>
+        <v>1.57257377483227</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.431223179307052</v>
+        <v>1.41429999139406</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.512567690344484</v>
+        <v>1.60246669197099</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.381328766960144</v>
+        <v>1.780059067105533</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.573674403366583</v>
+        <v>1.349884401421309</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.421211435266398</v>
+        <v>1.614260568729049</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.607840204739237</v>
+        <v>1.436518655574123</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.311635377554282</v>
+        <v>1.631040404202102</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.380329675554116</v>
+        <v>1.38534366790796</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.576847199652352</v>
+        <v>1.468609302552501</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.478726565765489</v>
+        <v>1.636484189956741</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.291816554462242</v>
+        <v>1.760676225453303</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.396691143685444</v>
+        <v>1.486175276436574</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.37913370755901</v>
+        <v>1.275905199584448</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.356411880933898</v>
+        <v>1.430210877513006</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.542871196858979</v>
+        <v>1.375681120968161</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.583503972308701</v>
+        <v>1.737067751219627</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5063,10 +5063,10 @@
         <v>3</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>1.831821097499554</v>
+        <v>1.468594274898482</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.417096731242442</v>
+        <v>1.492539476284273</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.402898165344193</v>
+        <v>1.291422706184168</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.50386079628713</v>
+        <v>1.159007455961677</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.778799025966629</v>
+        <v>1.509027841566309</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.391857455880073</v>
+        <v>1.457937744700185</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.482760177341988</v>
+        <v>1.393176065773991</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.443100711078471</v>
+        <v>1.353592035430482</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.572822649748177</v>
+        <v>1.561968291249473</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.531894250238062</v>
+        <v>1.26209468741973</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.221458950428145</v>
+        <v>1.493249827544324</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.501195808811639</v>
+        <v>1.380593557564194</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.580831195761986</v>
+        <v>1.540737128780229</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.560014536392089</v>
+        <v>1.610222388750826</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.548575154635721</v>
+        <v>1.408543644839589</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.475096542943481</v>
+        <v>1.399877894038547</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.616252368724879</v>
+        <v>1.731098068159255</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F212">
-        <v>1.118524074494319</v>
+        <v>1.466908374757385</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.460709279246527</v>
+        <v>1.454221408781508</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.343339543462635</v>
+        <v>1.460335338898182</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.383971549299061</v>
+        <v>1.364095324852599</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.769654850176579</v>
+        <v>1.684399785998861</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>1.287519111460129</v>
+        <v>1.633009115658761</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.457299294169632</v>
+        <v>1.61167672424672</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.522627142712068</v>
+        <v>1.328008666062553</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.546548563023804</v>
+        <v>1.288003919247193</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.205851022385879</v>
+        <v>1.265440665193465</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.49035800250593</v>
+        <v>1.430594195683353</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F223">
-        <v>1.259118067931594</v>
+        <v>1.534927755279332</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.375143982491268</v>
+        <v>1.438022205564941</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.485208633494578</v>
+        <v>1.461024331694711</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.54379288295088</v>
+        <v>1.55250253816417</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.700055663828937</v>
+        <v>1.281103626304683</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.582672339069663</v>
+        <v>1.723451625890513</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.320038917547599</v>
+        <v>1.583571026493157</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F230">
-        <v>1.406519970252841</v>
+        <v>1.616769186122131</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.5639622082008</v>
+        <v>1.421170651329885</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.413422877756132</v>
+        <v>1.287449113677809</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.341030694712634</v>
+        <v>1.452106917812394</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.390975993122347</v>
+        <v>1.519722164733476</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.397380302409809</v>
+        <v>1.66759076022073</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.89618385072572</v>
+        <v>1.359836109974047</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.294366840268629</v>
+        <v>1.716265526696239</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.545123425141178</v>
+        <v>1.446571597447645</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.471591397721737</v>
+        <v>1.496331124959449</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.579084167257732</v>
+        <v>1.303956034716566</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.40611122572833</v>
+        <v>1.291885693496291</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.458541405329513</v>
+        <v>1.470522322944717</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.618386805548427</v>
+        <v>1.522755144320698</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.281486785811098</v>
+        <v>1.574615248376954</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.191556070793409</v>
+        <v>1.514110565336821</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.303712391763778</v>
+        <v>1.943661922013529</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.433545402841758</v>
+        <v>1.389606730163484</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.450353187158951</v>
+        <v>1.383239871345251</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.591380708663971</v>
+        <v>1.273802062977811</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.379606806296199</v>
+        <v>1.533485387120706</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6183,10 +6183,10 @@
         <v>3</v>
       </c>
       <c r="E251">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>1.256828031499503</v>
+        <v>1.786056264579739</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.662994355143345</v>
+        <v>1.487054585462573</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.789913047212251</v>
+        <v>1.84346304916089</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="E254">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254">
-        <v>1.545645126692167</v>
+        <v>1.982929466810814</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.862650416165238</v>
+        <v>1.528458812240529</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.570994021011788</v>
+        <v>1.822332086463631</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.689055923720251</v>
+        <v>1.54283722737153</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
   </si>
   <si>
     <t>flower/flower045.jpg</t>
   </si>
   <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
     <t>dog/dog046.jpg</t>
   </si>
   <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
   </si>
   <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
+    <t>house/house033.jpg</t>
   </si>
   <si>
     <t>flower/flower044.jpg</t>
   </si>
   <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
   </si>
   <si>
     <t>face/face049.jpg</t>
   </si>
   <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
   </si>
   <si>
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
   </si>
   <si>
     <t>flower/flower050.jpg</t>
   </si>
   <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
   </si>
   <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
   </si>
   <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
   </si>
   <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
   </si>
   <si>
     <t>dog/dog081.jpg</t>
   </si>
   <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
     <t>face/face085.jpg</t>
   </si>
   <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
   </si>
   <si>
     <t>house/house092.jpg</t>
   </si>
   <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
+    <t>flower/flower089.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
     <t>face/face082.jpg</t>
   </si>
   <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
     <t>house/house080.jpg</t>
   </si>
   <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
     <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.447079216805052</v>
+        <v>1.832293267370879</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1.569508671040855</v>
+        <v>1.736987815221355</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.390521124571131</v>
+        <v>1.751253273842311</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.50506354372941</v>
+        <v>1.7938685410862</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.705642870807101</v>
+        <v>1.590625174707946</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.362647007769754</v>
+        <v>1.52679358638244</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.673867017124571</v>
+        <v>1.519423066948578</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.391385984832795</v>
+        <v>1.683106443613043</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.293639289478815</v>
+        <v>1.519163888322023</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.503259847616108</v>
+        <v>1.476162330948292</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.617507626496833</v>
+        <v>1.348971809092393</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.450227381986271</v>
+        <v>1.287345425520799</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.544604373108901</v>
+        <v>1.408599509048515</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.538173134953167</v>
+        <v>1.53287855374735</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.674481697097235</v>
+        <v>1.138361745093383</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.232513628707897</v>
+        <v>1.708094445340799</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.238457152789947</v>
+        <v>1.253552312058491</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.344236002246631</v>
+        <v>1.450693716641524</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.58692195294871</v>
+        <v>1.511101905294784</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.471912808832552</v>
+        <v>1.507287115766463</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.46812179929889</v>
+        <v>1.58215823171514</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.433731663007183</v>
+        <v>1.623940661665388</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.636270711744855</v>
+        <v>1.229347288939252</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.410947397575373</v>
+        <v>1.483601870464207</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.58531388014294</v>
+        <v>1.365253536357662</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1.609182191301439</v>
+        <v>1.396468661947657</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.44083813440514</v>
+        <v>1.665445272619034</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.520071840123018</v>
+        <v>1.610866315180861</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.632169199320194</v>
+        <v>1.764526729868719</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.340368990359301</v>
+        <v>1.793351596616692</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.442655017930156</v>
+        <v>1.694451973283539</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.543084096553743</v>
+        <v>1.564662867918605</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.398362454378926</v>
+        <v>1.317329787287979</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.644607786469273</v>
+        <v>1.894895836557215</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.525202973602976</v>
+        <v>1.365724862084705</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.662492361502049</v>
+        <v>1.375312038353575</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.547958345146888</v>
+        <v>1.580571600951797</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.496828683243674</v>
+        <v>1.481800733633729</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.290027182658336</v>
+        <v>1.551974413863672</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1.342226806504723</v>
+        <v>1.39805718635836</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1.692806323731604</v>
+        <v>1.414572875915534</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.296722749399586</v>
+        <v>1.74459296713085</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.67546780641275</v>
+        <v>1.549075800576871</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.492052752605443</v>
+        <v>1.645213285830896</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.390838509901864</v>
+        <v>1.380861246938278</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.387051951819281</v>
+        <v>1.485278549350198</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.650379445450604</v>
+        <v>1.407663476665746</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.772280777813734</v>
+        <v>1.716215137165247</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.599039201902373</v>
+        <v>1.431494499544095</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.526938390970985</v>
+        <v>1.380331830483818</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
-        <v>1.175506692249828</v>
+        <v>1.614233110994643</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.380825493499355</v>
+        <v>1.61600364851026</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.775122315891196</v>
+        <v>1.580813402433599</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.268169898653116</v>
+        <v>1.492042741349363</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56">
-        <v>1.379746625671859</v>
+        <v>1.769604571121329</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.649767052229967</v>
+        <v>1.674562843139436</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.67276727886532</v>
+        <v>1.480062222250275</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.287478624350537</v>
+        <v>1.462338118294548</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.654156436490332</v>
+        <v>1.546565326199262</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.471067303749988</v>
+        <v>1.369563936067696</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.572132488238092</v>
+        <v>1.737941483611284</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.833474175212429</v>
+        <v>1.775576518363199</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.543936126211772</v>
+        <v>1.544785325937354</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.708718230385262</v>
+        <v>1.5473141727754</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.244991258998835</v>
+        <v>1.545925662129996</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.500970948116192</v>
+        <v>1.50970440734502</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2523,10 +2523,10 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1.589039348691386</v>
+        <v>1.770629821989286</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.569154968901144</v>
+        <v>1.587537218053819</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.386303509837028</v>
+        <v>1.572567223660035</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.573080922050139</v>
+        <v>1.422530124695967</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.169087373561852</v>
+        <v>1.432677692858169</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.160888198019602</v>
+        <v>1.426199634627046</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.560879336499894</v>
+        <v>1.355700772468783</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>1.246578379182314</v>
+        <v>1.526789168053408</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.471062415576495</v>
+        <v>1.276469058632377</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>1.605786475353941</v>
+        <v>1.538024000876156</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2723,10 +2723,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>1.680893786996436</v>
+        <v>1.281730645191197</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.310671210926493</v>
+        <v>1.634587952064447</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.44752939283008</v>
+        <v>1.493982120353363</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.581117769998234</v>
+        <v>1.420483466207391</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>1.561137658977969</v>
+        <v>1.649998258750917</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.39006302016626</v>
+        <v>1.881528862306556</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.431933739761101</v>
+        <v>1.668706653551026</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.321238079827399</v>
+        <v>1.772828850942018</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.593482249315652</v>
+        <v>1.718065616910741</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.674188677640604</v>
+        <v>1.485547425886812</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.452881079561984</v>
+        <v>1.382803909654208</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.274734818900076</v>
+        <v>1.457513678870124</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.537312017941146</v>
+        <v>1.374652328341339</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.510825141204992</v>
+        <v>1.488151153654483</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92">
-        <v>1.363234618262192</v>
+        <v>1.598132011221568</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.444556596675649</v>
+        <v>1.808107847949091</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.40174509199746</v>
+        <v>1.413031951025216</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.368152338463874</v>
+        <v>1.627971948044118</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.55283892905413</v>
+        <v>1.613840202496391</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.354741948946269</v>
+        <v>1.819509724794741</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.240840648433511</v>
+        <v>1.696091251674858</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.754696922625462</v>
+        <v>1.49217326658752</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.568877073189374</v>
+        <v>1.392029341094244</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.561654032628203</v>
+        <v>1.164708610878397</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.796719129742642</v>
+        <v>1.516430169885489</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.772654466913862</v>
+        <v>1.605706273374358</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>1.403686259463868</v>
+        <v>1.566113363956776</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.643044849723911</v>
+        <v>1.744545455414824</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.402837782323071</v>
+        <v>1.375008732076106</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.45967156109949</v>
+        <v>1.554960165278775</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.483580032580847</v>
+        <v>1.560701945803596</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3343,10 +3343,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>1.54050700603087</v>
+        <v>1.359287215135124</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.596818230916401</v>
+        <v>1.604428022427297</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.481469913545981</v>
+        <v>1.330770916350766</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.291531293387052</v>
+        <v>1.449057049673384</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.542744837548772</v>
+        <v>1.592198600970654</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.193042820137234</v>
+        <v>1.516795546494859</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.638643558382411</v>
+        <v>1.554088363813184</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.332810645617846</v>
+        <v>1.581946343606876</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.653435243692178</v>
+        <v>1.589086964376122</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.331261485265241</v>
+        <v>1.466305858150099</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.427799614196406</v>
+        <v>1.27291087194225</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.454573827841293</v>
+        <v>1.274413215575769</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.530165965511156</v>
+        <v>1.680643192523348</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.619955515706498</v>
+        <v>1.364133180472158</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.550250936555281</v>
+        <v>1.706395124108557</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.778968327545147</v>
+        <v>1.570201536006267</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.52557608423713</v>
+        <v>1.30956928109674</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>1.48440762723057</v>
+        <v>1.595913701466124</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.5110969475669</v>
+        <v>1.240470521178358</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>1.62226210009653</v>
+        <v>1.597351193104346</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.546354139590125</v>
+        <v>1.390800961179953</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.499820470604541</v>
+        <v>1.521674570835384</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.450043018604688</v>
+        <v>1.673394264871069</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.612740104027949</v>
+        <v>1.585892749561687</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.595904834985529</v>
+        <v>1.40668939136298</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.560208798782044</v>
+        <v>1.671875826924573</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.64308855552231</v>
+        <v>1.261775404144051</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3883,10 +3883,10 @@
         <v>2</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>1.694081365101002</v>
+        <v>1.382404845699002</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.273555862760528</v>
+        <v>1.732653952619965</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.634581717455643</v>
+        <v>1.653089685726161</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.592861190799581</v>
+        <v>1.836904211395591</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.677672341842356</v>
+        <v>1.56955659030861</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141">
-        <v>1.484230402042652</v>
+        <v>1.282339601935136</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.567690696973671</v>
+        <v>1.672110722702902</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.67420340958658</v>
+        <v>1.916047288364035</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144">
-        <v>1.284524735086358</v>
+        <v>1.724313979247665</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.35804896322385</v>
+        <v>1.605019447734104</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.556840336710838</v>
+        <v>1.404358713805938</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.369834202493045</v>
+        <v>1.38245717273084</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.392468346539799</v>
+        <v>1.582938667750417</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4146,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="F149">
-        <v>1.408326253112593</v>
+        <v>1.339594673961114</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.878645839069246</v>
+        <v>1.729627345265395</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.36721013658029</v>
+        <v>1.403733452698313</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.672994542967813</v>
+        <v>1.614797039036522</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.652695049152667</v>
+        <v>1.306208392578248</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.328062644912006</v>
+        <v>1.267107530179005</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.466237698402774</v>
+        <v>1.456148594978614</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.363783039375065</v>
+        <v>1.623855072306159</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.518426923736017</v>
+        <v>1.388063563067145</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.456437383803208</v>
+        <v>1.627546289090547</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.504404380453971</v>
+        <v>1.324357659400412</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.388205521406156</v>
+        <v>1.444205412060057</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.305422211850268</v>
+        <v>1.533622137023118</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.473443651033262</v>
+        <v>1.524699060877482</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4423,10 +4423,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163">
-        <v>1.545478453195863</v>
+        <v>1.629186268010918</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.438932913458334</v>
+        <v>1.317955222404547</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.48400021541773</v>
+        <v>1.295591841341126</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>1</v>
       </c>
       <c r="F166">
-        <v>1.202900437246814</v>
+        <v>1.675620851936119</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.260436629965035</v>
+        <v>1.60032353311015</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.491021171454767</v>
+        <v>1.373586499322015</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169">
-        <v>1.472034379799123</v>
+        <v>1.617426229041038</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.491659737170024</v>
+        <v>1.460470304828341</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.447960870429255</v>
+        <v>1.435370285153571</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.49388542757777</v>
+        <v>1.710086535851241</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.65527033396014</v>
+        <v>1.384022728755179</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.32355257881465</v>
+        <v>1.368894566758518</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.78893718582673</v>
+        <v>1.497144034479318</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.188950724464718</v>
+        <v>1.401863868986831</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.530368972612695</v>
+        <v>1.4551385211479</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.57257377483227</v>
+        <v>1.684054841674098</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.41429999139406</v>
+        <v>1.536519016781718</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.60246669197099</v>
+        <v>1.711480222263553</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4783,10 +4783,10 @@
         <v>2</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F181">
-        <v>1.780059067105533</v>
+        <v>1.417961238329213</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.349884401421309</v>
+        <v>1.285498760854237</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.614260568729049</v>
+        <v>1.28303334978815</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <v>1.436518655574123</v>
+        <v>1.453186579443726</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.631040404202102</v>
+        <v>1.333004229664174</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.38534366790796</v>
+        <v>1.764137396811396</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.468609302552501</v>
+        <v>1.539602562146188</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.636484189956741</v>
+        <v>1.583134829842352</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.760676225453303</v>
+        <v>1.415548097339134</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.486175276436574</v>
+        <v>1.467730983723535</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.275905199584448</v>
+        <v>1.412222661692549</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.430210877513006</v>
+        <v>1.414357861316744</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.375681120968161</v>
+        <v>1.204205224132027</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.737067751219627</v>
+        <v>1.455739230116094</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.468594274898482</v>
+        <v>1.376175015082651</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.492539476284273</v>
+        <v>1.139423211827335</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.291422706184168</v>
+        <v>1.446141867470904</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>1.159007455961677</v>
+        <v>1.405999765262608</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.509027841566309</v>
+        <v>1.521784916946717</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.457937744700185</v>
+        <v>1.335632892689294</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.393176065773991</v>
+        <v>1.39328610608362</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.353592035430482</v>
+        <v>1.316929845192239</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.561968291249473</v>
+        <v>1.542827215844033</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.26209468741973</v>
+        <v>1.287979890815421</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.493249827544324</v>
+        <v>1.540720385808189</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.380593557564194</v>
+        <v>1.608573338291102</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.540737128780229</v>
+        <v>1.781868250463023</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.610222388750826</v>
+        <v>1.592806267842548</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.408543644839589</v>
+        <v>1.138067130728259</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.399877894038547</v>
+        <v>1.570169882696973</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.731098068159255</v>
+        <v>1.405716469783035</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5403,10 +5403,10 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212">
-        <v>1.466908374757385</v>
+        <v>1.492198899832292</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.454221408781508</v>
+        <v>1.195109121606928</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.460335338898182</v>
+        <v>1.416772207590523</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.364095324852599</v>
+        <v>1.498217798664206</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.684399785998861</v>
+        <v>1.014603708654466</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.633009115658761</v>
+        <v>1.40263945927289</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.61167672424672</v>
+        <v>1.438638750584781</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.328008666062553</v>
+        <v>1.377581376115251</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F220">
-        <v>1.288003919247193</v>
+        <v>1.633333788147679</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F221">
-        <v>1.265440665193465</v>
+        <v>1.581271596656457</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.430594195683353</v>
+        <v>1.376982162853437</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5623,10 +5623,10 @@
         <v>3</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>1.534927755279332</v>
+        <v>1.495123625226207</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F224">
-        <v>1.438022205564941</v>
+        <v>1.516012253493992</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5663,10 +5663,10 @@
         <v>3</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F225">
-        <v>1.461024331694711</v>
+        <v>1.562044785246991</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.55250253816417</v>
+        <v>1.534903989810767</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.281103626304683</v>
+        <v>1.281633887848333</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.723451625890513</v>
+        <v>1.392433707002215</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.583571026493157</v>
+        <v>1.542885073451142</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5763,10 +5763,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>1.616769186122131</v>
+        <v>1.685147866645637</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.421170651329885</v>
+        <v>1.657263948889524</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.287449113677809</v>
+        <v>1.451293445039853</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.452106917812394</v>
+        <v>1.474104945183203</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.519722164733476</v>
+        <v>1.444357192175074</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.66759076022073</v>
+        <v>1.678304657583725</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.359836109974047</v>
+        <v>1.26228105803717</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237">
-        <v>1.716265526696239</v>
+        <v>1.467163262027855</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.446571597447645</v>
+        <v>1.470342487480446</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.496331124959449</v>
+        <v>1.698244073915374</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.303956034716566</v>
+        <v>1.404497989186227</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.291885693496291</v>
+        <v>1.598595705398246</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.470522322944717</v>
+        <v>1.43080456181084</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.522755144320698</v>
+        <v>1.395823172026507</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.574615248376954</v>
+        <v>1.488021193177021</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.514110565336821</v>
+        <v>1.398954176988591</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246">
-        <v>1.943661922013529</v>
+        <v>1.599567695342848</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.389606730163484</v>
+        <v>1.549356633598894</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.383239871345251</v>
+        <v>1.24619054783625</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.273802062977811</v>
+        <v>1.239936513999654</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.533485387120706</v>
+        <v>1.396074096115493</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.786056264579739</v>
+        <v>1.641476762178878</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.487054585462573</v>
+        <v>1.531558853888061</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.84346304916089</v>
+        <v>1.206326970377215</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.982929466810814</v>
+        <v>1.23487091015028</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.528458812240529</v>
+        <v>1.341069144319748</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.822332086463631</v>
+        <v>1.375537695325266</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.54283722737153</v>
+        <v>1.598434178873274</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/24_localizer.xlsx
+++ b/sequences/24_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>face</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
   </si>
   <si>
     <t>face/face040.jpg</t>
   </si>
   <si>
-    <t>flower/flower041.jpg</t>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
   </si>
   <si>
     <t>face/face036.jpg</t>
   </si>
   <si>
-    <t>house/house044.jpg</t>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
   </si>
   <si>
     <t>face/face034.jpg</t>
   </si>
   <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
     <t>dog/dog033.jpg</t>
   </si>
   <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
     <t>house/house040.jpg</t>
   </si>
   <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
     <t>house/house045.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
+    <t>house/house036.jpg</t>
   </si>
   <si>
     <t>flower/flower046.jpg</t>
   </si>
   <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
   </si>
   <si>
     <t>house/house057.jpg</t>
   </si>
   <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
     <t>house/house058.jpg</t>
   </si>
   <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
+    <t>house/house062.jpg</t>
   </si>
   <si>
     <t>dog/dog058.jpg</t>
   </si>
   <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
     <t>house/house052.jpg</t>
   </si>
   <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>flower/flower072.jpg</t>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
     <t>face/face072.jpg</t>
   </si>
   <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
     <t>dog/dog071.jpg</t>
   </si>
   <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
   <si>
     <t>house/house081.jpg</t>
   </si>
   <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
   </si>
   <si>
     <t>face/face087.jpg</t>
   </si>
   <si>
-    <t>flower/flower086.jpg</t>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
   </si>
   <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
     <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.832293267370879</v>
+        <v>1.348284712152262</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.736987815221355</v>
+        <v>1.425596418755541</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.751253273842311</v>
+        <v>1.528967637321407</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.7938685410862</v>
+        <v>1.341600254681633</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.590625174707946</v>
+        <v>1.520070619357559</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.52679358638244</v>
+        <v>1.609426574098341</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.519423066948578</v>
+        <v>1.377322974155202</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1.683106443613043</v>
+        <v>1.588806472651954</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.519163888322023</v>
+        <v>1.37887260434037</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.476162330948292</v>
+        <v>1.662429122287159</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.348971809092393</v>
+        <v>1.636114657991118</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.287345425520799</v>
+        <v>1.366310608260767</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.408599509048515</v>
+        <v>1.202339824671071</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.53287855374735</v>
+        <v>1.420908471608885</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.138361745093383</v>
+        <v>1.464526502276994</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.708094445340799</v>
+        <v>1.436944474943191</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.253552312058491</v>
+        <v>1.438669581823356</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.450693716641524</v>
+        <v>1.151246630786952</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1.511101905294784</v>
+        <v>1.80784142060624</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.507287115766463</v>
+        <v>1.730688015419251</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.58215823171514</v>
+        <v>1.832680621153719</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.623940661665388</v>
+        <v>1.439716551889727</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1643,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1.229347288939252</v>
+        <v>1.588601462447873</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.483601870464207</v>
+        <v>1.575681917314194</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.365253536357662</v>
+        <v>1.636772784389465</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <v>1.396468661947657</v>
+        <v>1.293358804499825</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.665445272619034</v>
+        <v>1.349499343611839</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.610866315180861</v>
+        <v>1.316270521924013</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.764526729868719</v>
+        <v>1.588612538955256</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.793351596616692</v>
+        <v>1.405415098604536</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.694451973283539</v>
+        <v>1.514040533832145</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.564662867918605</v>
+        <v>1.681321326521933</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.317329787287979</v>
+        <v>1.658018610911942</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1863,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1.894895836557215</v>
+        <v>1.514555511994009</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.365724862084705</v>
+        <v>1.426272455298045</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.375312038353575</v>
+        <v>1.587587749013348</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.580571600951797</v>
+        <v>1.343734660266429</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.481800733633729</v>
+        <v>1.503481112768971</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.551974413863672</v>
+        <v>1.678398459966586</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1983,10 +1983,10 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>1.39805718635836</v>
+        <v>1.580757923119783</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2003,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1.414572875915534</v>
+        <v>1.429366671115154</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.74459296713085</v>
+        <v>1.617817825774178</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.549075800576871</v>
+        <v>1.525135742873693</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.645213285830896</v>
+        <v>1.638733424051886</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.380861246938278</v>
+        <v>1.440501931045141</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.485278549350198</v>
+        <v>1.379697834646642</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.407663476665746</v>
+        <v>1.70824202508988</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.716215137165247</v>
+        <v>1.490746657482776</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.431494499544095</v>
+        <v>1.637524764975892</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.380331830483818</v>
+        <v>1.462438460229587</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2203,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1.614233110994643</v>
+        <v>1.51113358199055</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.61600364851026</v>
+        <v>1.603823118245308</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.580813402433599</v>
+        <v>1.247955997709607</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.492042741349363</v>
+        <v>1.509847840045236</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1.769604571121329</v>
+        <v>1.299211462556002</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.674562843139436</v>
+        <v>1.53008213670525</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.480062222250275</v>
+        <v>1.585350689222733</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.462338118294548</v>
+        <v>1.491836025762882</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.546565326199262</v>
+        <v>1.389865817499964</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.369563936067696</v>
+        <v>1.675512344734542</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.737941483611284</v>
+        <v>1.470737368635205</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.775576518363199</v>
+        <v>1.386432925448795</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.544785325937354</v>
+        <v>1.585445293710611</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.5473141727754</v>
+        <v>1.570485145472948</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.545925662129996</v>
+        <v>1.569443147542145</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67">
-        <v>1.50970440734502</v>
+        <v>1.322395758486645</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.770629821989286</v>
+        <v>1.466074525572661</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.587537218053819</v>
+        <v>1.904725368994205</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.572567223660035</v>
+        <v>1.372133573152844</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.422530124695967</v>
+        <v>1.869676789658163</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.432677692858169</v>
+        <v>1.21239545557131</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.426199634627046</v>
+        <v>1.533648926639759</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2643,10 +2643,10 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>1.355700772468783</v>
+        <v>1.486809696872031</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.526789168053408</v>
+        <v>1.44084430136385</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.276469058632377</v>
+        <v>1.493664696145896</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2703,10 +2703,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>1.538024000876156</v>
+        <v>1.501691316325106</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.281730645191197</v>
+        <v>1.629064032653285</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.634587952064447</v>
+        <v>1.463339375710933</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.493982120353363</v>
+        <v>1.338644137767946</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.420483466207391</v>
+        <v>1.455141241008742</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.649998258750917</v>
+        <v>1.405448607379886</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.881528862306556</v>
+        <v>1.694537367349603</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.668706653551026</v>
+        <v>1.575133688648412</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.772828850942018</v>
+        <v>1.670565937300413</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.718065616910741</v>
+        <v>1.361932233757368</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.485547425886812</v>
+        <v>1.476262146846512</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.382803909654208</v>
+        <v>1.531733379097908</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.457513678870124</v>
+        <v>1.416699895172338</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.374652328341339</v>
+        <v>1.578652432586422</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.488151153654483</v>
+        <v>1.449670291460517</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3003,10 +3003,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1.598132011221568</v>
+        <v>1.804266635550643</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.808107847949091</v>
+        <v>1.460878637349739</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.413031951025216</v>
+        <v>1.541438621144476</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.627971948044118</v>
+        <v>1.508458695807937</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.613840202496391</v>
+        <v>1.436110697349992</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.819509724794741</v>
+        <v>1.513290257227957</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.696091251674858</v>
+        <v>1.570265939122158</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.49217326658752</v>
+        <v>1.850241600928317</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.392029341094244</v>
+        <v>1.759291921623676</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.164708610878397</v>
+        <v>1.384230640608606</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.516430169885489</v>
+        <v>1.246414117127697</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.605706273374358</v>
+        <v>1.693602459332084</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3243,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1.566113363956776</v>
+        <v>1.603082421887706</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.744545455414824</v>
+        <v>1.444817335961628</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.375008732076106</v>
+        <v>1.354209625707891</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.554960165278775</v>
+        <v>1.908437928959985</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1.560701945803596</v>
+        <v>1.686515970927064</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.359287215135124</v>
+        <v>1.445229505778611</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3363,10 +3363,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>1.604428022427297</v>
+        <v>1.325546052037747</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.330770916350766</v>
+        <v>1.44754007325816</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.449057049673384</v>
+        <v>1.522117278892733</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.592198600970654</v>
+        <v>1.312598964933598</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.516795546494859</v>
+        <v>1.42269425594199</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.554088363813184</v>
+        <v>1.556244170327164</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.581946343606876</v>
+        <v>1.778834454128373</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.589086964376122</v>
+        <v>1.251380890427176</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.466305858150099</v>
+        <v>1.389891549188122</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.27291087194225</v>
+        <v>1.319567904352868</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.274413215575769</v>
+        <v>1.475564770528073</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.680643192523348</v>
+        <v>1.776332396789017</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.364133180472158</v>
+        <v>1.518444656997143</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.706395124108557</v>
+        <v>1.397357851465639</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.570201536006267</v>
+        <v>1.574919711634017</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.30956928109674</v>
+        <v>1.51272170313668</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3683,10 +3683,10 @@
         <v>1</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>1.595913701466124</v>
+        <v>1.416981040963845</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.240470521178358</v>
+        <v>1.403334408380123</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3723,10 +3723,10 @@
         <v>1</v>
       </c>
       <c r="E128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>1.597351193104346</v>
+        <v>1.468082814714804</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.390800961179953</v>
+        <v>1.58445865849519</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.521674570835384</v>
+        <v>1.593267863666266</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.673394264871069</v>
+        <v>1.365765260363814</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.585892749561687</v>
+        <v>1.535581415085345</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.40668939136298</v>
+        <v>1.637926262041001</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134">
-        <v>1.671875826924573</v>
+        <v>1.393519836990698</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.261775404144051</v>
+        <v>1.556699281015984</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.382404845699002</v>
+        <v>1.588552589990001</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.732653952619965</v>
+        <v>1.538955915029863</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.653089685726161</v>
+        <v>1.585880242225303</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.836904211395591</v>
+        <v>1.579756061473491</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.56955659030861</v>
+        <v>1.603319316284376</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3983,10 +3983,10 @@
         <v>2</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1.282339601935136</v>
+        <v>1.370898866729241</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.672110722702902</v>
+        <v>1.494588673814345</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.916047288364035</v>
+        <v>1.580225318630528</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4043,10 +4043,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>1.724313979247665</v>
+        <v>1.443164374392945</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.605019447734104</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.404358713805938</v>
+        <v>1.433646711195267</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.38245717273084</v>
+        <v>1.689243304778048</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.582938667750417</v>
+        <v>1.629381430008145</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.339594673961114</v>
+        <v>1.538854992035545</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.729627345265395</v>
+        <v>1.332902272365414</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.403733452698313</v>
+        <v>1.335070531223423</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.614797039036522</v>
+        <v>1.56596739934248</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.306208392578248</v>
+        <v>1.656335535271238</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.267107530179005</v>
+        <v>1.42160130395025</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.456148594978614</v>
+        <v>1.335937122482025</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.623855072306159</v>
+        <v>1.26770053975507</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.388063563067145</v>
+        <v>1.460458087287247</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.627546289090547</v>
+        <v>1.561310342482487</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.324357659400412</v>
+        <v>1.488023244519661</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.444205412060057</v>
+        <v>1.525981244550983</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.533622137023118</v>
+        <v>1.379798521770798</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.524699060877482</v>
+        <v>1.486905648907633</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.629186268010918</v>
+        <v>1.510144883570952</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.317955222404547</v>
+        <v>1.51019060023495</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.295591841341126</v>
+        <v>1.346515780939586</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4483,10 +4483,10 @@
         <v>2</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166">
-        <v>1.675620851936119</v>
+        <v>1.537222400637924</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.60032353311015</v>
+        <v>1.552274981041875</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.373586499322015</v>
+        <v>1.563004173692341</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4543,10 +4543,10 @@
         <v>2</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1.617426229041038</v>
+        <v>1.784202050466867</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.460470304828341</v>
+        <v>1.600015374633761</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.435370285153571</v>
+        <v>1.351356701333206</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.710086535851241</v>
+        <v>1.725213316814445</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.384022728755179</v>
+        <v>1.503828801249761</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.368894566758518</v>
+        <v>1.446638787467836</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.497144034479318</v>
+        <v>1.494977084875089</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.401863868986831</v>
+        <v>1.474578390016998</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.4551385211479</v>
+        <v>1.568709015344485</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.684054841674098</v>
+        <v>1.466446961821644</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.536519016781718</v>
+        <v>1.432267636051217</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.711480222263553</v>
+        <v>1.73515110306411</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>1</v>
       </c>
       <c r="F181">
-        <v>1.417961238329213</v>
+        <v>1.459291413927492</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.285498760854237</v>
+        <v>1.45193213481195</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.28303334978815</v>
+        <v>1.572281380491394</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4843,10 +4843,10 @@
         <v>2</v>
       </c>
       <c r="E184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>1.453186579443726</v>
+        <v>1.45617073486862</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.333004229664174</v>
+        <v>1.406420259949974</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.764137396811396</v>
+        <v>1.671323875772039</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.539602562146188</v>
+        <v>1.404933311486681</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.583134829842352</v>
+        <v>1.759745947481666</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.415548097339134</v>
+        <v>1.641965307567387</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.467730983723535</v>
+        <v>1.692403041985751</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.412222661692549</v>
+        <v>1.659850854211003</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.414357861316744</v>
+        <v>1.488368341280771</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.204205224132027</v>
+        <v>1.524916163628173</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.455739230116094</v>
+        <v>1.709609516319</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.376175015082651</v>
+        <v>1.552447552196588</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.139423211827335</v>
+        <v>1.525010629639426</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.446141867470904</v>
+        <v>1.470099513984345</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.405999765262608</v>
+        <v>1.57710215741118</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.521784916946717</v>
+        <v>1.415999497198701</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.335632892689294</v>
+        <v>1.463507716060297</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.39328610608362</v>
+        <v>1.469898930676428</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.316929845192239</v>
+        <v>1.741525723981155</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.542827215844033</v>
+        <v>1.513996931455183</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.287979890815421</v>
+        <v>1.204299315829167</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.540720385808189</v>
+        <v>1.472122248218142</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.608573338291102</v>
+        <v>1.603579045146337</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.781868250463023</v>
+        <v>1.394703344784933</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.592806267842548</v>
+        <v>1.234718388586931</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.138067130728259</v>
+        <v>1.269868251124651</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.570169882696973</v>
+        <v>1.654678565633897</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.405716469783035</v>
+        <v>1.603861575286417</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.492198899832292</v>
+        <v>1.469674833204838</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.195109121606928</v>
+        <v>1.203488933472417</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.416772207590523</v>
+        <v>1.555640952802476</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.498217798664206</v>
+        <v>1.882444362202177</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.014603708654466</v>
+        <v>1.664832267355039</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.40263945927289</v>
+        <v>1.428190608520381</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.438638750584781</v>
+        <v>1.423743326653346</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.377581376115251</v>
+        <v>1.257961727244311</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5563,10 +5563,10 @@
         <v>3</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220">
-        <v>1.633333788147679</v>
+        <v>1.438706158663243</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5583,10 +5583,10 @@
         <v>3</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221">
-        <v>1.581271596656457</v>
+        <v>1.391910844736762</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.376982162853437</v>
+        <v>1.525089930834304</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.495123625226207</v>
+        <v>1.566129743398651</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5643,10 +5643,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>1.516012253493992</v>
+        <v>1.371656630165519</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>1</v>
       </c>
       <c r="F225">
-        <v>1.562044785246991</v>
+        <v>1.627339439683318</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.534903989810767</v>
+        <v>1.716069846721102</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.281633887848333</v>
+        <v>1.409232300321434</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5723,10 +5723,10 @@
         <v>3</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F228">
-        <v>1.392433707002215</v>
+        <v>1.59492916699323</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5743,10 +5743,10 @@
         <v>3</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F229">
-        <v>1.542885073451142</v>
+        <v>1.61221050541154</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.685147866645637</v>
+        <v>1.554499006150805</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.657263948889524</v>
+        <v>1.46640232127628</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.451293445039853</v>
+        <v>1.120338217031986</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.474104945183203</v>
+        <v>1.76205374642926</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.444357192175074</v>
+        <v>1.446181593558338</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.678304657583725</v>
+        <v>1.378920636491282</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.26228105803717</v>
+        <v>1.429732394847256</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5903,10 +5903,10 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F237">
-        <v>1.467163262027855</v>
+        <v>1.587714034353811</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.470342487480446</v>
+        <v>1.526473508843614</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.698244073915374</v>
+        <v>1.310306150246661</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.404497989186227</v>
+        <v>1.332809543895045</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.598595705398246</v>
+        <v>1.600906802376764</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.43080456181084</v>
+        <v>1.321631811255497</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.395823172026507</v>
+        <v>1.296920107065613</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.488021193177021</v>
+        <v>1.63894857063381</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.398954176988591</v>
+        <v>1.28572756980169</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6083,10 +6083,10 @@
         <v>3</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>1.599567695342848</v>
+        <v>1.242058078568529</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.549356633598894</v>
+        <v>1.670971519048357</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.24619054783625</v>
+        <v>1.398194358463654</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.239936513999654</v>
+        <v>1.174552886925087</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6163,10 +6163,10 @@
         <v>3</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F250">
-        <v>1.396074096115493</v>
+        <v>1.969785261923297</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.641476762178878</v>
+        <v>1.627386512749661</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.531558853888061</v>
+        <v>1.55508935163141</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.206326970377215</v>
+        <v>1.394578772577425</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.23487091015028</v>
+        <v>1.157032419759302</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.341069144319748</v>
+        <v>1.377821307706051</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.375537695325266</v>
+        <v>1.380975782028478</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.598434178873274</v>
+        <v>1.408459090858702</v>
       </c>
     </row>
   </sheetData>
